--- a/JupyterNotebooks/AvgHW/Alpha2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.040040769848634</v>
+        <v>0.9452564402012327</v>
       </c>
       <c r="D3">
+        <v>1.04621878292398</v>
+      </c>
+      <c r="E3">
         <v>0.9452564402012327</v>
-      </c>
-      <c r="E3">
-        <v>1.04621878292398</v>
       </c>
       <c r="F3">
         <v>1.040040769848634</v>
       </c>
       <c r="G3">
+        <v>1.033073608695943</v>
+      </c>
+      <c r="H3">
         <v>0.9754192663722134</v>
       </c>
-      <c r="H3">
-        <v>1.033073608695943</v>
-      </c>
       <c r="I3">
+        <v>1.040040769848634</v>
+      </c>
+      <c r="J3">
         <v>0.95920784574783</v>
-      </c>
-      <c r="J3">
-        <v>0.9452564402012327</v>
       </c>
       <c r="K3">
         <v>1.040040769848634</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.093229033325613</v>
+        <v>0.8636529284385208</v>
       </c>
       <c r="D4">
+        <v>1.049840317304674</v>
+      </c>
+      <c r="E4">
         <v>0.8636529284385208</v>
-      </c>
-      <c r="E4">
-        <v>1.049840317304674</v>
       </c>
       <c r="F4">
         <v>1.093229033325613</v>
       </c>
       <c r="G4">
+        <v>1.111664845330716</v>
+      </c>
+      <c r="H4">
         <v>0.9226603018680085</v>
       </c>
-      <c r="H4">
-        <v>1.111664845330716</v>
-      </c>
       <c r="I4">
+        <v>1.093229033325613</v>
+      </c>
+      <c r="J4">
         <v>0.9457823457905921</v>
-      </c>
-      <c r="J4">
-        <v>0.8636529284385208</v>
       </c>
       <c r="K4">
         <v>1.093229033325613</v>
@@ -738,34 +750,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.030077739855052</v>
+        <v>1.079105688780985</v>
       </c>
       <c r="D5">
+        <v>1.193792957776766</v>
+      </c>
+      <c r="E5">
         <v>1.079105688780985</v>
-      </c>
-      <c r="E5">
-        <v>1.193792957776767</v>
       </c>
       <c r="F5">
         <v>1.030077739855052</v>
       </c>
       <c r="G5">
+        <v>1.189037126510028</v>
+      </c>
+      <c r="H5">
         <v>0.9647230825363421</v>
       </c>
-      <c r="H5">
-        <v>1.189037126510028</v>
-      </c>
       <c r="I5">
+        <v>1.030077739855052</v>
+      </c>
+      <c r="J5">
         <v>0.7578918198054169</v>
-      </c>
-      <c r="J5">
-        <v>1.079105688780985</v>
       </c>
       <c r="K5">
         <v>1.030077739855052</v>
       </c>
       <c r="L5">
-        <v>1.193792957776767</v>
+        <v>1.193792957776766</v>
       </c>
       <c r="M5">
         <v>1.136449323278876</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.814694690987474</v>
+        <v>0.3432910311698499</v>
       </c>
       <c r="D6">
+        <v>1.891271888656094</v>
+      </c>
+      <c r="E6">
         <v>0.3432910311698499</v>
-      </c>
-      <c r="E6">
-        <v>1.891271888656094</v>
       </c>
       <c r="F6">
         <v>1.814694690987474</v>
       </c>
       <c r="G6">
+        <v>1.537526523260113</v>
+      </c>
+      <c r="H6">
         <v>0.6405722402140277</v>
       </c>
-      <c r="H6">
-        <v>1.537526523260113</v>
-      </c>
       <c r="I6">
+        <v>1.814694690987474</v>
+      </c>
+      <c r="J6">
         <v>0.5243746338197803</v>
-      </c>
-      <c r="J6">
-        <v>0.3432910311698499</v>
       </c>
       <c r="K6">
         <v>1.814694690987474</v>
@@ -862,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003985322765041</v>
+        <v>0.9989717930672022</v>
       </c>
       <c r="D7">
+        <v>1.000240911224441</v>
+      </c>
+      <c r="E7">
         <v>0.9989717930672022</v>
       </c>
-      <c r="E7">
-        <v>1.000240911224443</v>
-      </c>
       <c r="F7">
-        <v>1.003985322765041</v>
+        <v>1.00398532276504</v>
       </c>
       <c r="G7">
-        <v>0.9993843310730489</v>
+        <v>0.9987413440454675</v>
       </c>
       <c r="H7">
-        <v>0.9987413440454694</v>
+        <v>0.9993843310730501</v>
       </c>
       <c r="I7">
-        <v>0.9989629437670597</v>
+        <v>1.00398532276504</v>
       </c>
       <c r="J7">
-        <v>0.9989717930672022</v>
+        <v>0.9989629437670605</v>
       </c>
       <c r="K7">
-        <v>1.003985322765041</v>
+        <v>1.00398532276504</v>
       </c>
       <c r="L7">
-        <v>1.000240911224443</v>
+        <v>1.000240911224441</v>
       </c>
       <c r="M7">
-        <v>0.9996063521458224</v>
+        <v>0.9996063521458218</v>
       </c>
       <c r="N7">
-        <v>0.9996063521458224</v>
+        <v>0.9996063521458218</v>
       </c>
       <c r="O7">
-        <v>0.9993180161123715</v>
+        <v>0.9993180161123704</v>
       </c>
       <c r="P7">
         <v>1.001066009018895</v>
@@ -913,7 +925,7 @@
         <v>1.001795837455431</v>
       </c>
       <c r="T7">
-        <v>1.000047774323711</v>
+        <v>1.00004777432371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,34 +936,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.01737639691933</v>
+        <v>0.9959635077497173</v>
       </c>
       <c r="D8">
-        <v>0.9959635077497179</v>
+        <v>0.9998976365775045</v>
       </c>
       <c r="E8">
-        <v>0.999897636577504</v>
+        <v>0.9959635077497173</v>
       </c>
       <c r="F8">
         <v>1.01737639691933</v>
       </c>
       <c r="G8">
-        <v>1.00324604037106</v>
+        <v>0.9968950915288778</v>
       </c>
       <c r="H8">
-        <v>0.9968950915288773</v>
+        <v>1.003246040371059</v>
       </c>
       <c r="I8">
-        <v>0.9983253523706657</v>
+        <v>1.01737639691933</v>
       </c>
       <c r="J8">
-        <v>0.9959635077497179</v>
+        <v>0.9983253523706647</v>
       </c>
       <c r="K8">
         <v>1.01737639691933</v>
       </c>
       <c r="L8">
-        <v>0.999897636577504</v>
+        <v>0.9998976365775045</v>
       </c>
       <c r="M8">
         <v>0.9979305721636109</v>
@@ -960,7 +972,7 @@
         <v>0.9979305721636109</v>
       </c>
       <c r="O8">
-        <v>0.997585411952033</v>
+        <v>0.9975854119520332</v>
       </c>
       <c r="P8">
         <v>1.004412513748851</v>
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.062678156366779</v>
+        <v>1.001071944549756</v>
       </c>
       <c r="D9">
+        <v>1.015685253740094</v>
+      </c>
+      <c r="E9">
         <v>1.001071944549756</v>
-      </c>
-      <c r="E9">
-        <v>1.015685253740094</v>
       </c>
       <c r="F9">
         <v>1.062678156366779</v>
       </c>
       <c r="G9">
+        <v>1.000320307287453</v>
+      </c>
+      <c r="H9">
         <v>1.000389477091559</v>
       </c>
-      <c r="H9">
-        <v>1.000320307287453</v>
-      </c>
       <c r="I9">
+        <v>1.062678156366779</v>
+      </c>
+      <c r="J9">
         <v>0.995570930976271</v>
-      </c>
-      <c r="J9">
-        <v>1.001071944549756</v>
       </c>
       <c r="K9">
         <v>1.062678156366779</v>
@@ -1048,46 +1060,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.079682422802683</v>
+        <v>0.987762838231971</v>
       </c>
       <c r="D10">
+        <v>0.9951243971830344</v>
+      </c>
+      <c r="E10">
         <v>0.987762838231971</v>
-      </c>
-      <c r="E10">
-        <v>0.9951243971830345</v>
       </c>
       <c r="F10">
         <v>1.079682422802683</v>
       </c>
       <c r="G10">
+        <v>0.9994983374792172</v>
+      </c>
+      <c r="H10">
         <v>0.9985025727908839</v>
       </c>
-      <c r="H10">
-        <v>0.9994983374792172</v>
-      </c>
       <c r="I10">
+        <v>1.079682422802683</v>
+      </c>
+      <c r="J10">
         <v>0.9966170086462043</v>
-      </c>
-      <c r="J10">
-        <v>0.987762838231971</v>
       </c>
       <c r="K10">
         <v>1.079682422802683</v>
       </c>
       <c r="L10">
-        <v>0.9951243971830345</v>
+        <v>0.9951243971830344</v>
       </c>
       <c r="M10">
-        <v>0.9914436177075028</v>
+        <v>0.9914436177075027</v>
       </c>
       <c r="N10">
-        <v>0.9914436177075028</v>
+        <v>0.9914436177075027</v>
       </c>
       <c r="O10">
         <v>0.9941285242980742</v>
       </c>
       <c r="P10">
-        <v>1.02085655273923</v>
+        <v>1.020856552739229</v>
       </c>
       <c r="Q10">
         <v>1.02085655273923</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.159501038313611</v>
+        <v>0.802460686616791</v>
       </c>
       <c r="D11">
+        <v>0.9912041619393813</v>
+      </c>
+      <c r="E11">
         <v>0.802460686616791</v>
-      </c>
-      <c r="E11">
-        <v>0.9912041619393813</v>
       </c>
       <c r="F11">
         <v>1.159501038313611</v>
       </c>
       <c r="G11">
+        <v>1.041024080581261</v>
+      </c>
+      <c r="H11">
         <v>1.104783192872266</v>
       </c>
-      <c r="H11">
-        <v>1.041024080581261</v>
-      </c>
       <c r="I11">
-        <v>0.9816339904508917</v>
+        <v>1.159501038313611</v>
       </c>
       <c r="J11">
-        <v>0.802460686616791</v>
+        <v>0.9816339904508919</v>
       </c>
       <c r="K11">
         <v>1.159501038313611</v>
@@ -1172,31 +1184,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.291663990849877</v>
+        <v>0.08295033050546884</v>
       </c>
       <c r="D12">
+        <v>1.872201884411598</v>
+      </c>
+      <c r="E12">
         <v>0.08295033050546884</v>
       </c>
-      <c r="E12">
-        <v>1.872201884411598</v>
-      </c>
       <c r="F12">
-        <v>1.291663990849877</v>
+        <v>1.291663990849878</v>
       </c>
       <c r="G12">
-        <v>0.05449475739745574</v>
+        <v>1.204496121253931</v>
       </c>
       <c r="H12">
-        <v>1.204496121253933</v>
+        <v>0.05449475739745575</v>
       </c>
       <c r="I12">
-        <v>0.8970324175091775</v>
+        <v>1.291663990849878</v>
       </c>
       <c r="J12">
-        <v>0.08295033050546884</v>
+        <v>0.8970324175091774</v>
       </c>
       <c r="K12">
-        <v>1.291663990849877</v>
+        <v>1.291663990849878</v>
       </c>
       <c r="L12">
         <v>1.872201884411598</v>
@@ -1208,7 +1220,7 @@
         <v>0.9775761074585336</v>
       </c>
       <c r="O12">
-        <v>1.053216112057</v>
+        <v>1.053216112056999</v>
       </c>
       <c r="P12">
         <v>1.082272068588982</v>
@@ -1223,7 +1235,7 @@
         <v>1.134620049154206</v>
       </c>
       <c r="T12">
-        <v>0.9004732503212519</v>
+        <v>0.9004732503212516</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.820917926914697</v>
+        <v>1.985364889919626</v>
       </c>
       <c r="D13">
+        <v>0.4352659370741574</v>
+      </c>
+      <c r="E13">
         <v>1.985364889919626</v>
       </c>
-      <c r="E13">
-        <v>0.4352659370741575</v>
-      </c>
       <c r="F13">
-        <v>0.820917926914697</v>
+        <v>0.8209179269146976</v>
       </c>
       <c r="G13">
+        <v>0.5522788786390546</v>
+      </c>
+      <c r="H13">
         <v>2.18003985223065</v>
       </c>
-      <c r="H13">
-        <v>0.5522788786390548</v>
-      </c>
       <c r="I13">
+        <v>0.8209179269146976</v>
+      </c>
+      <c r="J13">
         <v>0.6965456643618477</v>
       </c>
-      <c r="J13">
-        <v>1.985364889919626</v>
-      </c>
       <c r="K13">
-        <v>0.820917926914697</v>
+        <v>0.8209179269146976</v>
       </c>
       <c r="L13">
-        <v>0.4352659370741575</v>
+        <v>0.4352659370741574</v>
       </c>
       <c r="M13">
         <v>1.210315413496892</v>
@@ -1279,10 +1291,10 @@
         <v>1.080516251302827</v>
       </c>
       <c r="R13">
-        <v>1.015616670205794</v>
+        <v>1.015616670205795</v>
       </c>
       <c r="S13">
-        <v>1.015616670205794</v>
+        <v>1.015616670205795</v>
       </c>
       <c r="T13">
         <v>1.111735524856672</v>
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0008001724272154236</v>
+        <v>3.833118434014641</v>
       </c>
       <c r="D14">
-        <v>3.833118434014639</v>
+        <v>0.921639598403602</v>
       </c>
       <c r="E14">
-        <v>0.9216395984036023</v>
+        <v>3.833118434014641</v>
       </c>
       <c r="F14">
-        <v>0.0008001724272154236</v>
+        <v>0.0008001724272154217</v>
       </c>
       <c r="G14">
-        <v>1.567549991966158</v>
+        <v>1.892633668346419</v>
       </c>
       <c r="H14">
-        <v>1.892633668346419</v>
+        <v>1.56754999196616</v>
       </c>
       <c r="I14">
-        <v>0.4589249208222241</v>
+        <v>0.0008001724272154217</v>
       </c>
       <c r="J14">
-        <v>3.833118434014639</v>
+        <v>0.458924920822224</v>
       </c>
       <c r="K14">
-        <v>0.0008001724272154236</v>
+        <v>0.0008001724272154217</v>
       </c>
       <c r="L14">
-        <v>0.9216395984036023</v>
+        <v>0.921639598403602</v>
       </c>
       <c r="M14">
-        <v>2.377379016209121</v>
+        <v>2.377379016209122</v>
       </c>
       <c r="N14">
-        <v>2.377379016209121</v>
+        <v>2.377379016209122</v>
       </c>
       <c r="O14">
-        <v>2.21579723358822</v>
+        <v>2.215797233588221</v>
       </c>
       <c r="P14">
-        <v>1.585186068281819</v>
+        <v>1.58518606828182</v>
       </c>
       <c r="Q14">
-        <v>1.585186068281819</v>
+        <v>1.58518606828182</v>
       </c>
       <c r="R14">
-        <v>1.189089594318168</v>
+        <v>1.189089594318169</v>
       </c>
       <c r="S14">
-        <v>1.189089594318168</v>
+        <v>1.189089594318169</v>
       </c>
       <c r="T14">
-        <v>1.445777797663376</v>
+        <v>1.445777797663377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6591969602014227</v>
+        <v>0.003550613755952988</v>
       </c>
       <c r="D15">
+        <v>1.254772966985912</v>
+      </c>
+      <c r="E15">
         <v>0.003550613755952988</v>
-      </c>
-      <c r="E15">
-        <v>1.254772966985912</v>
       </c>
       <c r="F15">
         <v>0.6591969602014227</v>
       </c>
       <c r="G15">
-        <v>0.0001804650347443718</v>
+        <v>1.037479104080533</v>
       </c>
       <c r="H15">
-        <v>1.037479104080533</v>
+        <v>0.0001804650347443722</v>
       </c>
       <c r="I15">
+        <v>0.6591969602014227</v>
+      </c>
+      <c r="J15">
         <v>1.510632512469594</v>
-      </c>
-      <c r="J15">
-        <v>0.003550613755952988</v>
       </c>
       <c r="K15">
         <v>0.6591969602014227</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.988936009694817</v>
+        <v>0.2384380910950247</v>
       </c>
       <c r="D16">
-        <v>1.000258105021887</v>
+        <v>1.619276220715629</v>
       </c>
       <c r="E16">
-        <v>0.9937650343025138</v>
+        <v>0.2384380910950247</v>
       </c>
       <c r="F16">
-        <v>0.988936009694817</v>
+        <v>1.569790947174602</v>
       </c>
       <c r="G16">
-        <v>1.003827199346487</v>
+        <v>1.643414840921166</v>
       </c>
       <c r="H16">
-        <v>0.991730894229111</v>
+        <v>0.3408806444959666</v>
       </c>
       <c r="I16">
-        <v>0.9989631271050189</v>
+        <v>1.569790947174602</v>
       </c>
       <c r="J16">
-        <v>1.000258105021887</v>
+        <v>0.4221730677029157</v>
       </c>
       <c r="K16">
-        <v>0.988936009694817</v>
+        <v>1.569790947174602</v>
       </c>
       <c r="L16">
-        <v>0.9937650343025138</v>
+        <v>1.619276220715629</v>
       </c>
       <c r="M16">
-        <v>0.9970115696622002</v>
+        <v>0.928857155905327</v>
       </c>
       <c r="N16">
-        <v>0.9970115696622002</v>
+        <v>0.928857155905327</v>
       </c>
       <c r="O16">
-        <v>0.995251344517837</v>
+        <v>1.167043050910607</v>
       </c>
       <c r="P16">
-        <v>0.9943197163397391</v>
+        <v>1.142501752995085</v>
       </c>
       <c r="Q16">
-        <v>0.9943197163397391</v>
+        <v>1.142501752995085</v>
       </c>
       <c r="R16">
-        <v>0.9929737896785087</v>
+        <v>1.249324051539965</v>
       </c>
       <c r="S16">
-        <v>0.9929737896785087</v>
+        <v>1.249324051539965</v>
       </c>
       <c r="T16">
-        <v>0.9962467282833057</v>
+        <v>0.9723289686842175</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.017273676556432</v>
+        <v>0.4740073236618147</v>
       </c>
       <c r="D17">
-        <v>0.9985944281972274</v>
+        <v>1.434299193916378</v>
       </c>
       <c r="E17">
-        <v>1.020495749522981</v>
+        <v>0.4740073236618147</v>
       </c>
       <c r="F17">
-        <v>1.017273676556432</v>
+        <v>1.346218345045845</v>
       </c>
       <c r="G17">
-        <v>1.000376861317629</v>
+        <v>1.425237863703874</v>
       </c>
       <c r="H17">
-        <v>1.010453890867827</v>
+        <v>0.5132317001956341</v>
       </c>
       <c r="I17">
-        <v>0.9956169872385106</v>
+        <v>1.346218345045845</v>
       </c>
       <c r="J17">
-        <v>0.9985944281972274</v>
+        <v>0.5942403234240513</v>
       </c>
       <c r="K17">
-        <v>1.017273676556432</v>
+        <v>1.346218345045845</v>
       </c>
       <c r="L17">
-        <v>1.020495749522981</v>
+        <v>1.434299193916378</v>
       </c>
       <c r="M17">
-        <v>1.009545088860104</v>
+        <v>0.9541532587890962</v>
       </c>
       <c r="N17">
-        <v>1.009545088860104</v>
+        <v>0.9541532587890962</v>
       </c>
       <c r="O17">
-        <v>1.009848022862678</v>
+        <v>1.111181460427355</v>
       </c>
       <c r="P17">
-        <v>1.01212128475888</v>
+        <v>1.084841620874679</v>
       </c>
       <c r="Q17">
-        <v>1.01212128475888</v>
+        <v>1.084841620874679</v>
       </c>
       <c r="R17">
-        <v>1.013409382708268</v>
+        <v>1.150185801917471</v>
       </c>
       <c r="S17">
-        <v>1.013409382708268</v>
+        <v>1.150185801917471</v>
       </c>
       <c r="T17">
-        <v>1.007135265616768</v>
+        <v>0.964539124991266</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.088434542812221</v>
+        <v>0.9482472607510765</v>
       </c>
       <c r="D18">
-        <v>0.9905535722443566</v>
+        <v>1.059069746158898</v>
       </c>
       <c r="E18">
-        <v>0.9524775919071767</v>
+        <v>0.9482472607510765</v>
       </c>
       <c r="F18">
-        <v>1.088434542812221</v>
+        <v>0.9246361398626233</v>
       </c>
       <c r="G18">
-        <v>0.9574631341769667</v>
+        <v>0.989166516172213</v>
       </c>
       <c r="H18">
-        <v>0.9249353827573349</v>
+        <v>0.8631920388009655</v>
       </c>
       <c r="I18">
-        <v>0.9603547343663219</v>
+        <v>0.9246361398626233</v>
       </c>
       <c r="J18">
-        <v>0.9905535722443566</v>
+        <v>0.9370252452935902</v>
       </c>
       <c r="K18">
-        <v>1.088434542812221</v>
+        <v>0.9246361398626233</v>
       </c>
       <c r="L18">
-        <v>0.9524775919071767</v>
+        <v>1.059069746158898</v>
       </c>
       <c r="M18">
-        <v>0.9715155820757666</v>
+        <v>1.003658503454987</v>
       </c>
       <c r="N18">
-        <v>0.9715155820757666</v>
+        <v>1.003658503454987</v>
       </c>
       <c r="O18">
-        <v>0.9559888489696227</v>
+        <v>0.9988278410273957</v>
       </c>
       <c r="P18">
-        <v>1.010488568987918</v>
+        <v>0.9773177155908659</v>
       </c>
       <c r="Q18">
-        <v>1.010488568987918</v>
+        <v>0.9773177155908659</v>
       </c>
       <c r="R18">
-        <v>1.029975062443994</v>
+        <v>0.9641473216588052</v>
       </c>
       <c r="S18">
-        <v>1.029975062443994</v>
+        <v>0.9641473216588052</v>
       </c>
       <c r="T18">
-        <v>0.979036493044063</v>
+        <v>0.9535561578398943</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.7524607648950606</v>
+      </c>
+      <c r="D19">
+        <v>1.148289884610879</v>
+      </c>
+      <c r="E19">
+        <v>0.7524607648950606</v>
+      </c>
+      <c r="F19">
+        <v>0.7151967887788574</v>
+      </c>
+      <c r="G19">
+        <v>0.9417349735096817</v>
+      </c>
+      <c r="H19">
+        <v>0.9078661990175032</v>
+      </c>
+      <c r="I19">
+        <v>0.7151967887788574</v>
+      </c>
+      <c r="J19">
+        <v>0.9534304391647979</v>
+      </c>
+      <c r="K19">
+        <v>0.7151967887788574</v>
+      </c>
+      <c r="L19">
+        <v>1.148289884610879</v>
+      </c>
+      <c r="M19">
+        <v>0.9503753247529698</v>
+      </c>
+      <c r="N19">
+        <v>0.9503753247529698</v>
+      </c>
+      <c r="O19">
+        <v>0.9474952076718738</v>
+      </c>
+      <c r="P19">
+        <v>0.8719824794282657</v>
+      </c>
+      <c r="Q19">
+        <v>0.8719824794282657</v>
+      </c>
+      <c r="R19">
+        <v>0.8327860567659137</v>
+      </c>
+      <c r="S19">
+        <v>0.8327860567659137</v>
+      </c>
+      <c r="T19">
+        <v>0.9031631749961301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000258105021886</v>
+      </c>
+      <c r="D20">
+        <v>0.9937650343025141</v>
+      </c>
+      <c r="E20">
+        <v>1.000258105021886</v>
+      </c>
+      <c r="F20">
+        <v>0.9889360096948179</v>
+      </c>
+      <c r="G20">
+        <v>0.9917308942291112</v>
+      </c>
+      <c r="H20">
+        <v>1.003827199346488</v>
+      </c>
+      <c r="I20">
+        <v>0.9889360096948179</v>
+      </c>
+      <c r="J20">
+        <v>0.9989631271050181</v>
+      </c>
+      <c r="K20">
+        <v>0.9889360096948179</v>
+      </c>
+      <c r="L20">
+        <v>0.9937650343025141</v>
+      </c>
+      <c r="M20">
+        <v>0.9970115696621999</v>
+      </c>
+      <c r="N20">
+        <v>0.9970115696621999</v>
+      </c>
+      <c r="O20">
+        <v>0.995251344517837</v>
+      </c>
+      <c r="P20">
+        <v>0.9943197163397391</v>
+      </c>
+      <c r="Q20">
+        <v>0.9943197163397391</v>
+      </c>
+      <c r="R20">
+        <v>0.9929737896785089</v>
+      </c>
+      <c r="S20">
+        <v>0.9929737896785089</v>
+      </c>
+      <c r="T20">
+        <v>0.9962467282833057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9985944281972277</v>
+      </c>
+      <c r="D21">
+        <v>1.020495749522984</v>
+      </c>
+      <c r="E21">
+        <v>0.9985944281972277</v>
+      </c>
+      <c r="F21">
+        <v>1.017273676556432</v>
+      </c>
+      <c r="G21">
+        <v>1.010453890867827</v>
+      </c>
+      <c r="H21">
+        <v>1.000376861317628</v>
+      </c>
+      <c r="I21">
+        <v>1.017273676556432</v>
+      </c>
+      <c r="J21">
+        <v>0.995616987238511</v>
+      </c>
+      <c r="K21">
+        <v>1.017273676556432</v>
+      </c>
+      <c r="L21">
+        <v>1.020495749522984</v>
+      </c>
+      <c r="M21">
+        <v>1.009545088860106</v>
+      </c>
+      <c r="N21">
+        <v>1.009545088860106</v>
+      </c>
+      <c r="O21">
+        <v>1.00984802286268</v>
+      </c>
+      <c r="P21">
+        <v>1.012121284758881</v>
+      </c>
+      <c r="Q21">
+        <v>1.012121284758881</v>
+      </c>
+      <c r="R21">
+        <v>1.013409382708269</v>
+      </c>
+      <c r="S21">
+        <v>1.013409382708269</v>
+      </c>
+      <c r="T21">
+        <v>1.007135265616768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9905535722443565</v>
+      </c>
+      <c r="D22">
+        <v>0.952477591907178</v>
+      </c>
+      <c r="E22">
+        <v>0.9905535722443565</v>
+      </c>
+      <c r="F22">
+        <v>1.088434542812222</v>
+      </c>
+      <c r="G22">
+        <v>0.9249353827573356</v>
+      </c>
+      <c r="H22">
+        <v>0.9574631341769664</v>
+      </c>
+      <c r="I22">
+        <v>1.088434542812222</v>
+      </c>
+      <c r="J22">
+        <v>0.9603547343663217</v>
+      </c>
+      <c r="K22">
+        <v>1.088434542812222</v>
+      </c>
+      <c r="L22">
+        <v>0.952477591907178</v>
+      </c>
+      <c r="M22">
+        <v>0.9715155820757673</v>
+      </c>
+      <c r="N22">
+        <v>0.9715155820757673</v>
+      </c>
+      <c r="O22">
+        <v>0.9559888489696234</v>
+      </c>
+      <c r="P22">
+        <v>1.010488568987919</v>
+      </c>
+      <c r="Q22">
+        <v>1.010488568987919</v>
+      </c>
+      <c r="R22">
+        <v>1.029975062443995</v>
+      </c>
+      <c r="S22">
+        <v>1.029975062443995</v>
+      </c>
+      <c r="T22">
+        <v>0.9790364930440635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.228794388140687</v>
+      </c>
+      <c r="D23">
+        <v>0.8638776531751701</v>
+      </c>
+      <c r="E23">
+        <v>1.228794388140687</v>
+      </c>
+      <c r="F23">
         <v>0.8573195400508375</v>
       </c>
-      <c r="D19">
-        <v>1.228794388140687</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.888797363239329</v>
+      </c>
+      <c r="H23">
+        <v>1.084117561225058</v>
+      </c>
+      <c r="I23">
+        <v>0.8573195400508375</v>
+      </c>
+      <c r="J23">
+        <v>0.8641423544210545</v>
+      </c>
+      <c r="K23">
+        <v>0.8573195400508375</v>
+      </c>
+      <c r="L23">
         <v>0.8638776531751701</v>
       </c>
-      <c r="F19">
-        <v>0.8573195400508375</v>
-      </c>
-      <c r="G19">
-        <v>1.084117561225058</v>
-      </c>
-      <c r="H19">
-        <v>0.8887973632393288</v>
-      </c>
-      <c r="I19">
-        <v>0.8641423544210544</v>
-      </c>
-      <c r="J19">
-        <v>1.228794388140687</v>
-      </c>
-      <c r="K19">
-        <v>0.8573195400508375</v>
-      </c>
-      <c r="L19">
-        <v>0.8638776531751701</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.046336020657928</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.046336020657928</v>
       </c>
-      <c r="O19">
-        <v>0.9938231348517285</v>
-      </c>
-      <c r="P19">
+      <c r="O23">
+        <v>0.9938231348517287</v>
+      </c>
+      <c r="P23">
         <v>0.9833305271222313</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9833305271222316</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9518277803543831</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9518277803543831</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.964508143375356</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9452564402012327</v>
+        <v>0.8892196025425446</v>
       </c>
       <c r="D3">
-        <v>1.04621878292398</v>
+        <v>1.077148032208467</v>
       </c>
       <c r="E3">
-        <v>0.9452564402012327</v>
+        <v>0.8892196025425446</v>
       </c>
       <c r="F3">
-        <v>1.040040769848634</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="G3">
-        <v>1.033073608695943</v>
+        <v>0.9731119226213246</v>
       </c>
       <c r="H3">
-        <v>0.9754192663722134</v>
+        <v>0.8108834139927934</v>
       </c>
       <c r="I3">
-        <v>1.040040769848634</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="J3">
-        <v>0.95920784574783</v>
+        <v>0.9028288198253097</v>
       </c>
       <c r="K3">
-        <v>1.040040769848634</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="L3">
-        <v>1.04621878292398</v>
+        <v>1.077148032208467</v>
       </c>
       <c r="M3">
-        <v>0.9957376115626061</v>
+        <v>0.9831838173755061</v>
       </c>
       <c r="N3">
-        <v>0.9957376115626061</v>
+        <v>0.9831838173755061</v>
       </c>
       <c r="O3">
-        <v>1.008182943940385</v>
+        <v>0.9798265191241122</v>
       </c>
       <c r="P3">
-        <v>1.010505330991282</v>
+        <v>0.9551778197348395</v>
       </c>
       <c r="Q3">
-        <v>1.010505330991282</v>
+        <v>0.9551778197348394</v>
       </c>
       <c r="R3">
-        <v>1.01788919070562</v>
+        <v>0.9411748209145061</v>
       </c>
       <c r="S3">
-        <v>1.01788919070562</v>
+        <v>0.9411748209145061</v>
       </c>
       <c r="T3">
-        <v>0.9998694522983055</v>
+        <v>0.9253929359406575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8636529284385208</v>
+        <v>0.9199668056951863</v>
       </c>
       <c r="D4">
-        <v>1.049840317304674</v>
+        <v>1.070489161970138</v>
       </c>
       <c r="E4">
-        <v>0.8636529284385208</v>
+        <v>0.9199668056951863</v>
       </c>
       <c r="F4">
-        <v>1.093229033325613</v>
+        <v>0.8826264692192213</v>
       </c>
       <c r="G4">
-        <v>1.111664845330716</v>
+        <v>0.9814070191357894</v>
       </c>
       <c r="H4">
-        <v>0.9226603018680085</v>
+        <v>0.8367152224139173</v>
       </c>
       <c r="I4">
-        <v>1.093229033325613</v>
+        <v>0.8826264692192213</v>
       </c>
       <c r="J4">
-        <v>0.9457823457905921</v>
+        <v>0.9232173527674893</v>
       </c>
       <c r="K4">
-        <v>1.093229033325613</v>
+        <v>0.8826264692192213</v>
       </c>
       <c r="L4">
-        <v>1.049840317304674</v>
+        <v>1.070489161970138</v>
       </c>
       <c r="M4">
-        <v>0.9567466228715973</v>
+        <v>0.9952279838326623</v>
       </c>
       <c r="N4">
-        <v>0.9567466228715973</v>
+        <v>0.9952279838326623</v>
       </c>
       <c r="O4">
-        <v>1.00838603035797</v>
+        <v>0.9906209956003713</v>
       </c>
       <c r="P4">
-        <v>1.002240759689603</v>
+        <v>0.957694145628182</v>
       </c>
       <c r="Q4">
-        <v>1.002240759689603</v>
+        <v>0.957694145628182</v>
       </c>
       <c r="R4">
-        <v>1.024987828098605</v>
+        <v>0.9389272265259418</v>
       </c>
       <c r="S4">
-        <v>1.024987828098605</v>
+        <v>0.9389272265259418</v>
       </c>
       <c r="T4">
-        <v>0.9978049620096874</v>
+        <v>0.9357370052002904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.079105688780985</v>
+        <v>0.8129330787715796</v>
       </c>
       <c r="D5">
-        <v>1.193792957776766</v>
+        <v>1.105356589029758</v>
       </c>
       <c r="E5">
-        <v>1.079105688780985</v>
+        <v>0.8129330787715796</v>
       </c>
       <c r="F5">
-        <v>1.030077739855052</v>
+        <v>0.9576088129608197</v>
       </c>
       <c r="G5">
-        <v>1.189037126510028</v>
+        <v>0.9625134890947575</v>
       </c>
       <c r="H5">
-        <v>0.9647230825363421</v>
+        <v>0.7997644303874784</v>
       </c>
       <c r="I5">
-        <v>1.030077739855052</v>
+        <v>0.9576088129608197</v>
       </c>
       <c r="J5">
-        <v>0.7578918198054169</v>
+        <v>0.8733052679115895</v>
       </c>
       <c r="K5">
-        <v>1.030077739855052</v>
+        <v>0.9576088129608197</v>
       </c>
       <c r="L5">
-        <v>1.193792957776766</v>
+        <v>1.105356589029758</v>
       </c>
       <c r="M5">
-        <v>1.136449323278876</v>
+        <v>0.9591448339006688</v>
       </c>
       <c r="N5">
-        <v>1.136449323278876</v>
+        <v>0.9591448339006688</v>
       </c>
       <c r="O5">
-        <v>1.153978591022593</v>
+        <v>0.9602677189653651</v>
       </c>
       <c r="P5">
-        <v>1.100992128804268</v>
+        <v>0.9586328269207192</v>
       </c>
       <c r="Q5">
-        <v>1.100992128804268</v>
+        <v>0.9586328269207192</v>
       </c>
       <c r="R5">
-        <v>1.083263531566964</v>
+        <v>0.9583768234307443</v>
       </c>
       <c r="S5">
-        <v>1.083263531566964</v>
+        <v>0.9583768234307443</v>
       </c>
       <c r="T5">
-        <v>1.035771402544098</v>
+        <v>0.9185802780259972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3432910311698499</v>
+        <v>0.8150119437467043</v>
       </c>
       <c r="D6">
-        <v>1.891271888656094</v>
+        <v>1.292147320617784</v>
       </c>
       <c r="E6">
-        <v>0.3432910311698499</v>
+        <v>0.8150119437467043</v>
       </c>
       <c r="F6">
-        <v>1.814694690987474</v>
+        <v>1.26699370355</v>
       </c>
       <c r="G6">
-        <v>1.537526523260113</v>
+        <v>0.9759807745170732</v>
       </c>
       <c r="H6">
-        <v>0.6405722402140277</v>
+        <v>1.010031311659887</v>
       </c>
       <c r="I6">
-        <v>1.814694690987474</v>
+        <v>1.26699370355</v>
       </c>
       <c r="J6">
-        <v>0.5243746338197803</v>
+        <v>0.7801285285862735</v>
       </c>
       <c r="K6">
-        <v>1.814694690987474</v>
+        <v>1.26699370355</v>
       </c>
       <c r="L6">
-        <v>1.891271888656094</v>
+        <v>1.292147320617784</v>
       </c>
       <c r="M6">
-        <v>1.117281459912972</v>
+        <v>1.053579632182244</v>
       </c>
       <c r="N6">
-        <v>1.117281459912972</v>
+        <v>1.053579632182244</v>
       </c>
       <c r="O6">
-        <v>1.257363147695352</v>
+        <v>1.027713346293854</v>
       </c>
       <c r="P6">
-        <v>1.349752536937806</v>
+        <v>1.124717655971496</v>
       </c>
       <c r="Q6">
-        <v>1.349752536937806</v>
+        <v>1.124717655971496</v>
       </c>
       <c r="R6">
-        <v>1.465988075450223</v>
+        <v>1.160286667866123</v>
       </c>
       <c r="S6">
-        <v>1.465988075450223</v>
+        <v>1.160286667866123</v>
       </c>
       <c r="T6">
-        <v>1.125288501351223</v>
+        <v>1.023382263779621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989717930672022</v>
+        <v>0.0004600668512158435</v>
       </c>
       <c r="D7">
-        <v>1.000240911224441</v>
+        <v>0.9699339169679125</v>
       </c>
       <c r="E7">
-        <v>0.9989717930672022</v>
+        <v>0.0004600668512158435</v>
       </c>
       <c r="F7">
-        <v>1.00398532276504</v>
+        <v>2.44044960249408</v>
       </c>
       <c r="G7">
-        <v>0.9987413440454675</v>
+        <v>0.04184543149231551</v>
       </c>
       <c r="H7">
-        <v>0.9993843310730501</v>
+        <v>0.0194704415790427</v>
       </c>
       <c r="I7">
-        <v>1.00398532276504</v>
+        <v>2.44044960249408</v>
       </c>
       <c r="J7">
-        <v>0.9989629437670605</v>
+        <v>1.118308172309446</v>
       </c>
       <c r="K7">
-        <v>1.00398532276504</v>
+        <v>2.44044960249408</v>
       </c>
       <c r="L7">
-        <v>1.000240911224441</v>
+        <v>0.9699339169679125</v>
       </c>
       <c r="M7">
-        <v>0.9996063521458218</v>
+        <v>0.4851969919095642</v>
       </c>
       <c r="N7">
-        <v>0.9996063521458218</v>
+        <v>0.4851969919095642</v>
       </c>
       <c r="O7">
-        <v>0.9993180161123704</v>
+        <v>0.3374131384371479</v>
       </c>
       <c r="P7">
-        <v>1.001066009018895</v>
+        <v>1.136947862104403</v>
       </c>
       <c r="Q7">
-        <v>1.001066009018895</v>
+        <v>1.136947862104403</v>
       </c>
       <c r="R7">
-        <v>1.001795837455431</v>
+        <v>1.462823297201822</v>
       </c>
       <c r="S7">
-        <v>1.001795837455431</v>
+        <v>1.462823297201822</v>
       </c>
       <c r="T7">
-        <v>1.00004777432371</v>
+        <v>0.7650779386156686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9959635077497173</v>
+        <v>0.0004942304288528212</v>
       </c>
       <c r="D8">
-        <v>0.9998976365775045</v>
+        <v>0.9679335969119237</v>
       </c>
       <c r="E8">
-        <v>0.9959635077497173</v>
+        <v>0.0004942304288528212</v>
       </c>
       <c r="F8">
-        <v>1.01737639691933</v>
+        <v>2.483807575787273</v>
       </c>
       <c r="G8">
-        <v>0.9968950915288778</v>
+        <v>0.04157513857318437</v>
       </c>
       <c r="H8">
-        <v>1.003246040371059</v>
+        <v>0.0193494468378725</v>
       </c>
       <c r="I8">
-        <v>1.01737639691933</v>
+        <v>2.483807575787273</v>
       </c>
       <c r="J8">
-        <v>0.9983253523706647</v>
+        <v>1.11296946900658</v>
       </c>
       <c r="K8">
-        <v>1.01737639691933</v>
+        <v>2.483807575787273</v>
       </c>
       <c r="L8">
-        <v>0.9998976365775045</v>
+        <v>0.9679335969119237</v>
       </c>
       <c r="M8">
-        <v>0.9979305721636109</v>
+        <v>0.4842139136703882</v>
       </c>
       <c r="N8">
-        <v>0.9979305721636109</v>
+        <v>0.4842139136703882</v>
       </c>
       <c r="O8">
-        <v>0.9975854119520332</v>
+        <v>0.3366676553046536</v>
       </c>
       <c r="P8">
-        <v>1.004412513748851</v>
+        <v>1.150745134376016</v>
       </c>
       <c r="Q8">
-        <v>1.004412513748851</v>
+        <v>1.150745134376016</v>
       </c>
       <c r="R8">
-        <v>1.00765348454147</v>
+        <v>1.48401074472883</v>
       </c>
       <c r="S8">
-        <v>1.00765348454147</v>
+        <v>1.48401074472883</v>
       </c>
       <c r="T8">
-        <v>1.001950670919526</v>
+        <v>0.7710215762576144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001071944549756</v>
+        <v>0.0005147242686528607</v>
       </c>
       <c r="D9">
-        <v>1.015685253740094</v>
+        <v>0.9691631595182587</v>
       </c>
       <c r="E9">
-        <v>1.001071944549756</v>
+        <v>0.0005147242686528607</v>
       </c>
       <c r="F9">
-        <v>1.062678156366779</v>
+        <v>2.483763042807287</v>
       </c>
       <c r="G9">
-        <v>1.000320307287453</v>
+        <v>0.04117795988589492</v>
       </c>
       <c r="H9">
-        <v>1.000389477091559</v>
+        <v>0.01926727315508975</v>
       </c>
       <c r="I9">
-        <v>1.062678156366779</v>
+        <v>2.483763042807287</v>
       </c>
       <c r="J9">
-        <v>0.995570930976271</v>
+        <v>1.109909150187119</v>
       </c>
       <c r="K9">
-        <v>1.062678156366779</v>
+        <v>2.483763042807287</v>
       </c>
       <c r="L9">
-        <v>1.015685253740094</v>
+        <v>0.9691631595182587</v>
       </c>
       <c r="M9">
-        <v>1.008378599144925</v>
+        <v>0.4848389418934558</v>
       </c>
       <c r="N9">
-        <v>1.008378599144925</v>
+        <v>0.4848389418934558</v>
       </c>
       <c r="O9">
-        <v>1.005692501859101</v>
+        <v>0.3369519478909355</v>
       </c>
       <c r="P9">
-        <v>1.02647845155221</v>
+        <v>1.1511469755314</v>
       </c>
       <c r="Q9">
-        <v>1.02647845155221</v>
+        <v>1.1511469755314</v>
       </c>
       <c r="R9">
-        <v>1.035528377755852</v>
+        <v>1.484300992350371</v>
       </c>
       <c r="S9">
-        <v>1.035528377755852</v>
+        <v>1.484300992350371</v>
       </c>
       <c r="T9">
-        <v>1.012619345001985</v>
+        <v>0.7706325516370504</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.987762838231971</v>
+        <v>0.0005779011028249334</v>
       </c>
       <c r="D10">
-        <v>0.9951243971830344</v>
+        <v>0.9640604646050698</v>
       </c>
       <c r="E10">
-        <v>0.987762838231971</v>
+        <v>0.0005779011028249334</v>
       </c>
       <c r="F10">
-        <v>1.079682422802683</v>
+        <v>2.726054873150378</v>
       </c>
       <c r="G10">
-        <v>0.9994983374792172</v>
+        <v>0.03984635590838465</v>
       </c>
       <c r="H10">
-        <v>0.9985025727908839</v>
+        <v>0.01893560348158671</v>
       </c>
       <c r="I10">
-        <v>1.079682422802683</v>
+        <v>2.726054873150378</v>
       </c>
       <c r="J10">
-        <v>0.9966170086462043</v>
+        <v>1.094765952705932</v>
       </c>
       <c r="K10">
-        <v>1.079682422802683</v>
+        <v>2.726054873150378</v>
       </c>
       <c r="L10">
-        <v>0.9951243971830344</v>
+        <v>0.9640604646050698</v>
       </c>
       <c r="M10">
-        <v>0.9914436177075027</v>
+        <v>0.4823191828539474</v>
       </c>
       <c r="N10">
-        <v>0.9914436177075027</v>
+        <v>0.4823191828539474</v>
       </c>
       <c r="O10">
-        <v>0.9941285242980742</v>
+        <v>0.3348282405387598</v>
       </c>
       <c r="P10">
-        <v>1.020856552739229</v>
+        <v>1.230231079619424</v>
       </c>
       <c r="Q10">
-        <v>1.02085655273923</v>
+        <v>1.230231079619424</v>
       </c>
       <c r="R10">
-        <v>1.035563020255093</v>
+        <v>1.604187028002163</v>
       </c>
       <c r="S10">
-        <v>1.035563020255093</v>
+        <v>1.604187028002163</v>
       </c>
       <c r="T10">
-        <v>1.009531262855666</v>
+        <v>0.8073735251590294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.802460686616791</v>
+        <v>0.9546101430249853</v>
       </c>
       <c r="D11">
-        <v>0.9912041619393813</v>
+        <v>1.026579975002694</v>
       </c>
       <c r="E11">
-        <v>0.802460686616791</v>
+        <v>0.9546101430249853</v>
       </c>
       <c r="F11">
-        <v>1.159501038313611</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="G11">
-        <v>1.041024080581261</v>
+        <v>1.034257983086298</v>
       </c>
       <c r="H11">
-        <v>1.104783192872266</v>
+        <v>0.9533605094713952</v>
       </c>
       <c r="I11">
-        <v>1.159501038313611</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="J11">
-        <v>0.9816339904508919</v>
+        <v>0.9665965497835024</v>
       </c>
       <c r="K11">
-        <v>1.159501038313611</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="L11">
-        <v>0.9912041619393813</v>
+        <v>1.026579975002694</v>
       </c>
       <c r="M11">
-        <v>0.8968324242780862</v>
+        <v>0.9905950590138395</v>
       </c>
       <c r="N11">
-        <v>0.8968324242780862</v>
+        <v>0.9905950590138395</v>
       </c>
       <c r="O11">
-        <v>0.9448963097124778</v>
+        <v>1.005149367037992</v>
       </c>
       <c r="P11">
-        <v>0.9843886289565944</v>
+        <v>1.002777432473762</v>
       </c>
       <c r="Q11">
-        <v>0.9843886289565943</v>
+        <v>1.002777432473762</v>
       </c>
       <c r="R11">
-        <v>1.028166731295848</v>
+        <v>1.008868619203724</v>
       </c>
       <c r="S11">
-        <v>1.028166731295848</v>
+        <v>1.008868619203724</v>
       </c>
       <c r="T11">
-        <v>1.013434525129034</v>
+        <v>0.9937578899604137</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.08295033050546884</v>
+        <v>0.9725462998392337</v>
       </c>
       <c r="D12">
-        <v>1.872201884411598</v>
+        <v>1.018851890287265</v>
       </c>
       <c r="E12">
-        <v>0.08295033050546884</v>
+        <v>0.9725462998392337</v>
       </c>
       <c r="F12">
-        <v>1.291663990849878</v>
+        <v>1.02036154681347</v>
       </c>
       <c r="G12">
-        <v>1.204496121253931</v>
+        <v>1.012951413657053</v>
       </c>
       <c r="H12">
-        <v>0.05449475739745575</v>
+        <v>0.9770636897691004</v>
       </c>
       <c r="I12">
-        <v>1.291663990849878</v>
+        <v>1.02036154681347</v>
       </c>
       <c r="J12">
-        <v>0.8970324175091774</v>
+        <v>0.9841621566461862</v>
       </c>
       <c r="K12">
-        <v>1.291663990849878</v>
+        <v>1.02036154681347</v>
       </c>
       <c r="L12">
-        <v>1.872201884411598</v>
+        <v>1.018851890287265</v>
       </c>
       <c r="M12">
-        <v>0.9775761074585336</v>
+        <v>0.9956990950632494</v>
       </c>
       <c r="N12">
-        <v>0.9775761074585336</v>
+        <v>0.9956990950632494</v>
       </c>
       <c r="O12">
-        <v>1.053216112056999</v>
+        <v>1.001449867927851</v>
       </c>
       <c r="P12">
-        <v>1.082272068588982</v>
+        <v>1.003919912313323</v>
       </c>
       <c r="Q12">
-        <v>1.082272068588982</v>
+        <v>1.003919912313323</v>
       </c>
       <c r="R12">
-        <v>1.134620049154206</v>
+        <v>1.00803032093836</v>
       </c>
       <c r="S12">
-        <v>1.134620049154206</v>
+        <v>1.00803032093836</v>
       </c>
       <c r="T12">
-        <v>0.9004732503212516</v>
+        <v>0.9976561661687181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.985364889919626</v>
+        <v>0.9037186731132318</v>
       </c>
       <c r="D13">
-        <v>0.4352659370741574</v>
+        <v>1.055901790587011</v>
       </c>
       <c r="E13">
-        <v>1.985364889919626</v>
+        <v>0.9037186731132318</v>
       </c>
       <c r="F13">
-        <v>0.8209179269146976</v>
+        <v>1.065749085092533</v>
       </c>
       <c r="G13">
-        <v>0.5522788786390546</v>
+        <v>1.065935030704356</v>
       </c>
       <c r="H13">
-        <v>2.18003985223065</v>
+        <v>0.9407303149256685</v>
       </c>
       <c r="I13">
-        <v>0.8209179269146976</v>
+        <v>1.065749085092533</v>
       </c>
       <c r="J13">
-        <v>0.6965456643618477</v>
+        <v>0.9790502378656679</v>
       </c>
       <c r="K13">
-        <v>0.8209179269146976</v>
+        <v>1.065749085092533</v>
       </c>
       <c r="L13">
-        <v>0.4352659370741574</v>
+        <v>1.055901790587011</v>
       </c>
       <c r="M13">
-        <v>1.210315413496892</v>
+        <v>0.9798102318501212</v>
       </c>
       <c r="N13">
-        <v>1.210315413496892</v>
+        <v>0.9798102318501212</v>
       </c>
       <c r="O13">
-        <v>0.9909699018776128</v>
+        <v>1.008518498134866</v>
       </c>
       <c r="P13">
-        <v>1.080516251302827</v>
+        <v>1.008456516264258</v>
       </c>
       <c r="Q13">
-        <v>1.080516251302827</v>
+        <v>1.008456516264258</v>
       </c>
       <c r="R13">
-        <v>1.015616670205795</v>
+        <v>1.022779658471327</v>
       </c>
       <c r="S13">
-        <v>1.015616670205795</v>
+        <v>1.022779658471327</v>
       </c>
       <c r="T13">
-        <v>1.111735524856672</v>
+        <v>1.001847522048078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.833118434014641</v>
+        <v>1.047110541476253</v>
       </c>
       <c r="D14">
-        <v>0.921639598403602</v>
+        <v>1.47598984466645</v>
       </c>
       <c r="E14">
-        <v>3.833118434014641</v>
+        <v>1.047110541476253</v>
       </c>
       <c r="F14">
-        <v>0.0008001724272154217</v>
+        <v>1.184810859951881</v>
       </c>
       <c r="G14">
-        <v>1.892633668346419</v>
+        <v>1.084257813832256</v>
       </c>
       <c r="H14">
-        <v>1.56754999196616</v>
+        <v>1.22376087762686</v>
       </c>
       <c r="I14">
-        <v>0.0008001724272154217</v>
+        <v>1.184810859951881</v>
       </c>
       <c r="J14">
-        <v>0.458924920822224</v>
+        <v>0.7552449438828468</v>
       </c>
       <c r="K14">
-        <v>0.0008001724272154217</v>
+        <v>1.184810859951881</v>
       </c>
       <c r="L14">
-        <v>0.921639598403602</v>
+        <v>1.47598984466645</v>
       </c>
       <c r="M14">
-        <v>2.377379016209122</v>
+        <v>1.261550193071352</v>
       </c>
       <c r="N14">
-        <v>2.377379016209122</v>
+        <v>1.261550193071352</v>
       </c>
       <c r="O14">
-        <v>2.215797233588221</v>
+        <v>1.202452733324986</v>
       </c>
       <c r="P14">
-        <v>1.58518606828182</v>
+        <v>1.235970415364861</v>
       </c>
       <c r="Q14">
-        <v>1.58518606828182</v>
+        <v>1.235970415364861</v>
       </c>
       <c r="R14">
-        <v>1.189089594318169</v>
+        <v>1.223180526511616</v>
       </c>
       <c r="S14">
-        <v>1.189089594318169</v>
+        <v>1.223180526511616</v>
       </c>
       <c r="T14">
-        <v>1.445777797663377</v>
+        <v>1.128529146906091</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.003550613755952988</v>
+        <v>0.9452564402012327</v>
       </c>
       <c r="D15">
-        <v>1.254772966985912</v>
+        <v>1.04621878292398</v>
       </c>
       <c r="E15">
-        <v>0.003550613755952988</v>
+        <v>0.9452564402012327</v>
       </c>
       <c r="F15">
-        <v>0.6591969602014227</v>
+        <v>1.040040769848634</v>
       </c>
       <c r="G15">
-        <v>1.037479104080533</v>
+        <v>1.033073608695943</v>
       </c>
       <c r="H15">
-        <v>0.0001804650347443722</v>
+        <v>0.9754192663722134</v>
       </c>
       <c r="I15">
-        <v>0.6591969602014227</v>
+        <v>1.040040769848634</v>
       </c>
       <c r="J15">
-        <v>1.510632512469594</v>
+        <v>0.95920784574783</v>
       </c>
       <c r="K15">
-        <v>0.6591969602014227</v>
+        <v>1.040040769848634</v>
       </c>
       <c r="L15">
-        <v>1.254772966985912</v>
+        <v>1.04621878292398</v>
       </c>
       <c r="M15">
-        <v>0.6291617903709326</v>
+        <v>0.9957376115626061</v>
       </c>
       <c r="N15">
-        <v>0.6291617903709326</v>
+        <v>0.9957376115626061</v>
       </c>
       <c r="O15">
-        <v>0.765267561607466</v>
+        <v>1.008182943940385</v>
       </c>
       <c r="P15">
-        <v>0.6391735136477626</v>
+        <v>1.010505330991282</v>
       </c>
       <c r="Q15">
-        <v>0.6391735136477626</v>
+        <v>1.010505330991282</v>
       </c>
       <c r="R15">
-        <v>0.6441793752861777</v>
+        <v>1.01788919070562</v>
       </c>
       <c r="S15">
-        <v>0.6441793752861777</v>
+        <v>1.01788919070562</v>
       </c>
       <c r="T15">
-        <v>0.7443021037546932</v>
+        <v>0.9998694522983055</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2384380910950247</v>
+        <v>0.8636529284385208</v>
       </c>
       <c r="D16">
-        <v>1.619276220715629</v>
+        <v>1.049840317304674</v>
       </c>
       <c r="E16">
-        <v>0.2384380910950247</v>
+        <v>0.8636529284385208</v>
       </c>
       <c r="F16">
-        <v>1.569790947174602</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="G16">
-        <v>1.643414840921166</v>
+        <v>1.111664845330716</v>
       </c>
       <c r="H16">
-        <v>0.3408806444959666</v>
+        <v>0.9226603018680085</v>
       </c>
       <c r="I16">
-        <v>1.569790947174602</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="J16">
-        <v>0.4221730677029157</v>
+        <v>0.9457823457905921</v>
       </c>
       <c r="K16">
-        <v>1.569790947174602</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="L16">
-        <v>1.619276220715629</v>
+        <v>1.049840317304674</v>
       </c>
       <c r="M16">
-        <v>0.928857155905327</v>
+        <v>0.9567466228715973</v>
       </c>
       <c r="N16">
-        <v>0.928857155905327</v>
+        <v>0.9567466228715973</v>
       </c>
       <c r="O16">
-        <v>1.167043050910607</v>
+        <v>1.00838603035797</v>
       </c>
       <c r="P16">
-        <v>1.142501752995085</v>
+        <v>1.002240759689603</v>
       </c>
       <c r="Q16">
-        <v>1.142501752995085</v>
+        <v>1.002240759689603</v>
       </c>
       <c r="R16">
-        <v>1.249324051539965</v>
+        <v>1.024987828098605</v>
       </c>
       <c r="S16">
-        <v>1.249324051539965</v>
+        <v>1.024987828098605</v>
       </c>
       <c r="T16">
-        <v>0.9723289686842175</v>
+        <v>0.9978049620096874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4740073236618147</v>
+        <v>1.079105688780985</v>
       </c>
       <c r="D17">
-        <v>1.434299193916378</v>
+        <v>1.193792957776766</v>
       </c>
       <c r="E17">
-        <v>0.4740073236618147</v>
+        <v>1.079105688780985</v>
       </c>
       <c r="F17">
-        <v>1.346218345045845</v>
+        <v>1.030077739855052</v>
       </c>
       <c r="G17">
-        <v>1.425237863703874</v>
+        <v>1.189037126510028</v>
       </c>
       <c r="H17">
-        <v>0.5132317001956341</v>
+        <v>0.9647230825363421</v>
       </c>
       <c r="I17">
-        <v>1.346218345045845</v>
+        <v>1.030077739855052</v>
       </c>
       <c r="J17">
-        <v>0.5942403234240513</v>
+        <v>0.7578918198054169</v>
       </c>
       <c r="K17">
-        <v>1.346218345045845</v>
+        <v>1.030077739855052</v>
       </c>
       <c r="L17">
-        <v>1.434299193916378</v>
+        <v>1.193792957776766</v>
       </c>
       <c r="M17">
-        <v>0.9541532587890962</v>
+        <v>1.136449323278876</v>
       </c>
       <c r="N17">
-        <v>0.9541532587890962</v>
+        <v>1.136449323278876</v>
       </c>
       <c r="O17">
-        <v>1.111181460427355</v>
+        <v>1.153978591022593</v>
       </c>
       <c r="P17">
-        <v>1.084841620874679</v>
+        <v>1.100992128804268</v>
       </c>
       <c r="Q17">
-        <v>1.084841620874679</v>
+        <v>1.100992128804268</v>
       </c>
       <c r="R17">
-        <v>1.150185801917471</v>
+        <v>1.083263531566964</v>
       </c>
       <c r="S17">
-        <v>1.150185801917471</v>
+        <v>1.083263531566964</v>
       </c>
       <c r="T17">
-        <v>0.964539124991266</v>
+        <v>1.035771402544098</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9482472607510765</v>
+        <v>0.3432910311698499</v>
       </c>
       <c r="D18">
-        <v>1.059069746158898</v>
+        <v>1.891271888656094</v>
       </c>
       <c r="E18">
-        <v>0.9482472607510765</v>
+        <v>0.3432910311698499</v>
       </c>
       <c r="F18">
-        <v>0.9246361398626233</v>
+        <v>1.814694690987474</v>
       </c>
       <c r="G18">
-        <v>0.989166516172213</v>
+        <v>1.537526523260113</v>
       </c>
       <c r="H18">
-        <v>0.8631920388009655</v>
+        <v>0.6405722402140277</v>
       </c>
       <c r="I18">
-        <v>0.9246361398626233</v>
+        <v>1.814694690987474</v>
       </c>
       <c r="J18">
-        <v>0.9370252452935902</v>
+        <v>0.5243746338197803</v>
       </c>
       <c r="K18">
-        <v>0.9246361398626233</v>
+        <v>1.814694690987474</v>
       </c>
       <c r="L18">
-        <v>1.059069746158898</v>
+        <v>1.891271888656094</v>
       </c>
       <c r="M18">
-        <v>1.003658503454987</v>
+        <v>1.117281459912972</v>
       </c>
       <c r="N18">
-        <v>1.003658503454987</v>
+        <v>1.117281459912972</v>
       </c>
       <c r="O18">
-        <v>0.9988278410273957</v>
+        <v>1.257363147695352</v>
       </c>
       <c r="P18">
-        <v>0.9773177155908659</v>
+        <v>1.349752536937806</v>
       </c>
       <c r="Q18">
-        <v>0.9773177155908659</v>
+        <v>1.349752536937806</v>
       </c>
       <c r="R18">
-        <v>0.9641473216588052</v>
+        <v>1.465988075450223</v>
       </c>
       <c r="S18">
-        <v>0.9641473216588052</v>
+        <v>1.465988075450223</v>
       </c>
       <c r="T18">
-        <v>0.9535561578398943</v>
+        <v>1.125288501351223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7524607648950606</v>
+        <v>0.9989717930672022</v>
       </c>
       <c r="D19">
-        <v>1.148289884610879</v>
+        <v>1.000240911224441</v>
       </c>
       <c r="E19">
-        <v>0.7524607648950606</v>
+        <v>0.9989717930672022</v>
       </c>
       <c r="F19">
-        <v>0.7151967887788574</v>
+        <v>1.00398532276504</v>
       </c>
       <c r="G19">
-        <v>0.9417349735096817</v>
+        <v>0.9987413440454675</v>
       </c>
       <c r="H19">
-        <v>0.9078661990175032</v>
+        <v>0.9993843310730501</v>
       </c>
       <c r="I19">
-        <v>0.7151967887788574</v>
+        <v>1.00398532276504</v>
       </c>
       <c r="J19">
-        <v>0.9534304391647979</v>
+        <v>0.9989629437670605</v>
       </c>
       <c r="K19">
-        <v>0.7151967887788574</v>
+        <v>1.00398532276504</v>
       </c>
       <c r="L19">
-        <v>1.148289884610879</v>
+        <v>1.000240911224441</v>
       </c>
       <c r="M19">
-        <v>0.9503753247529698</v>
+        <v>0.9996063521458218</v>
       </c>
       <c r="N19">
-        <v>0.9503753247529698</v>
+        <v>0.9996063521458218</v>
       </c>
       <c r="O19">
-        <v>0.9474952076718738</v>
+        <v>0.9993180161123704</v>
       </c>
       <c r="P19">
-        <v>0.8719824794282657</v>
+        <v>1.001066009018895</v>
       </c>
       <c r="Q19">
-        <v>0.8719824794282657</v>
+        <v>1.001066009018895</v>
       </c>
       <c r="R19">
-        <v>0.8327860567659137</v>
+        <v>1.001795837455431</v>
       </c>
       <c r="S19">
-        <v>0.8327860567659137</v>
+        <v>1.001795837455431</v>
       </c>
       <c r="T19">
-        <v>0.9031631749961301</v>
+        <v>1.00004777432371</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000258105021886</v>
+        <v>0.9959635077497173</v>
       </c>
       <c r="D20">
-        <v>0.9937650343025141</v>
+        <v>0.9998976365775045</v>
       </c>
       <c r="E20">
-        <v>1.000258105021886</v>
+        <v>0.9959635077497173</v>
       </c>
       <c r="F20">
-        <v>0.9889360096948179</v>
+        <v>1.01737639691933</v>
       </c>
       <c r="G20">
-        <v>0.9917308942291112</v>
+        <v>0.9968950915288778</v>
       </c>
       <c r="H20">
-        <v>1.003827199346488</v>
+        <v>1.003246040371059</v>
       </c>
       <c r="I20">
-        <v>0.9889360096948179</v>
+        <v>1.01737639691933</v>
       </c>
       <c r="J20">
-        <v>0.9989631271050181</v>
+        <v>0.9983253523706647</v>
       </c>
       <c r="K20">
-        <v>0.9889360096948179</v>
+        <v>1.01737639691933</v>
       </c>
       <c r="L20">
-        <v>0.9937650343025141</v>
+        <v>0.9998976365775045</v>
       </c>
       <c r="M20">
-        <v>0.9970115696621999</v>
+        <v>0.9979305721636109</v>
       </c>
       <c r="N20">
-        <v>0.9970115696621999</v>
+        <v>0.9979305721636109</v>
       </c>
       <c r="O20">
-        <v>0.995251344517837</v>
+        <v>0.9975854119520332</v>
       </c>
       <c r="P20">
-        <v>0.9943197163397391</v>
+        <v>1.004412513748851</v>
       </c>
       <c r="Q20">
-        <v>0.9943197163397391</v>
+        <v>1.004412513748851</v>
       </c>
       <c r="R20">
-        <v>0.9929737896785089</v>
+        <v>1.00765348454147</v>
       </c>
       <c r="S20">
-        <v>0.9929737896785089</v>
+        <v>1.00765348454147</v>
       </c>
       <c r="T20">
-        <v>0.9962467282833057</v>
+        <v>1.001950670919526</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9985944281972277</v>
+        <v>1.001071944549756</v>
       </c>
       <c r="D21">
-        <v>1.020495749522984</v>
+        <v>1.015685253740094</v>
       </c>
       <c r="E21">
-        <v>0.9985944281972277</v>
+        <v>1.001071944549756</v>
       </c>
       <c r="F21">
-        <v>1.017273676556432</v>
+        <v>1.062678156366779</v>
       </c>
       <c r="G21">
-        <v>1.010453890867827</v>
+        <v>1.000320307287453</v>
       </c>
       <c r="H21">
-        <v>1.000376861317628</v>
+        <v>1.000389477091559</v>
       </c>
       <c r="I21">
-        <v>1.017273676556432</v>
+        <v>1.062678156366779</v>
       </c>
       <c r="J21">
-        <v>0.995616987238511</v>
+        <v>0.995570930976271</v>
       </c>
       <c r="K21">
-        <v>1.017273676556432</v>
+        <v>1.062678156366779</v>
       </c>
       <c r="L21">
-        <v>1.020495749522984</v>
+        <v>1.015685253740094</v>
       </c>
       <c r="M21">
-        <v>1.009545088860106</v>
+        <v>1.008378599144925</v>
       </c>
       <c r="N21">
-        <v>1.009545088860106</v>
+        <v>1.008378599144925</v>
       </c>
       <c r="O21">
-        <v>1.00984802286268</v>
+        <v>1.005692501859101</v>
       </c>
       <c r="P21">
-        <v>1.012121284758881</v>
+        <v>1.02647845155221</v>
       </c>
       <c r="Q21">
-        <v>1.012121284758881</v>
+        <v>1.02647845155221</v>
       </c>
       <c r="R21">
-        <v>1.013409382708269</v>
+        <v>1.035528377755852</v>
       </c>
       <c r="S21">
-        <v>1.013409382708269</v>
+        <v>1.035528377755852</v>
       </c>
       <c r="T21">
-        <v>1.007135265616768</v>
+        <v>1.012619345001985</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9905535722443565</v>
+        <v>0.987762838231971</v>
       </c>
       <c r="D22">
-        <v>0.952477591907178</v>
+        <v>0.9951243971830344</v>
       </c>
       <c r="E22">
-        <v>0.9905535722443565</v>
+        <v>0.987762838231971</v>
       </c>
       <c r="F22">
-        <v>1.088434542812222</v>
+        <v>1.079682422802683</v>
       </c>
       <c r="G22">
-        <v>0.9249353827573356</v>
+        <v>0.9994983374792172</v>
       </c>
       <c r="H22">
-        <v>0.9574631341769664</v>
+        <v>0.9985025727908839</v>
       </c>
       <c r="I22">
-        <v>1.088434542812222</v>
+        <v>1.079682422802683</v>
       </c>
       <c r="J22">
-        <v>0.9603547343663217</v>
+        <v>0.9966170086462043</v>
       </c>
       <c r="K22">
-        <v>1.088434542812222</v>
+        <v>1.079682422802683</v>
       </c>
       <c r="L22">
-        <v>0.952477591907178</v>
+        <v>0.9951243971830344</v>
       </c>
       <c r="M22">
-        <v>0.9715155820757673</v>
+        <v>0.9914436177075027</v>
       </c>
       <c r="N22">
-        <v>0.9715155820757673</v>
+        <v>0.9914436177075027</v>
       </c>
       <c r="O22">
-        <v>0.9559888489696234</v>
+        <v>0.9941285242980742</v>
       </c>
       <c r="P22">
-        <v>1.010488568987919</v>
+        <v>1.020856552739229</v>
       </c>
       <c r="Q22">
-        <v>1.010488568987919</v>
+        <v>1.02085655273923</v>
       </c>
       <c r="R22">
-        <v>1.029975062443995</v>
+        <v>1.035563020255093</v>
       </c>
       <c r="S22">
-        <v>1.029975062443995</v>
+        <v>1.035563020255093</v>
       </c>
       <c r="T22">
-        <v>0.9790364930440635</v>
+        <v>1.009531262855666</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.802460686616791</v>
+      </c>
+      <c r="D23">
+        <v>0.9912041619393813</v>
+      </c>
+      <c r="E23">
+        <v>0.802460686616791</v>
+      </c>
+      <c r="F23">
+        <v>1.159501038313611</v>
+      </c>
+      <c r="G23">
+        <v>1.041024080581261</v>
+      </c>
+      <c r="H23">
+        <v>1.104783192872266</v>
+      </c>
+      <c r="I23">
+        <v>1.159501038313611</v>
+      </c>
+      <c r="J23">
+        <v>0.9816339904508919</v>
+      </c>
+      <c r="K23">
+        <v>1.159501038313611</v>
+      </c>
+      <c r="L23">
+        <v>0.9912041619393813</v>
+      </c>
+      <c r="M23">
+        <v>0.8968324242780862</v>
+      </c>
+      <c r="N23">
+        <v>0.8968324242780862</v>
+      </c>
+      <c r="O23">
+        <v>0.9448963097124778</v>
+      </c>
+      <c r="P23">
+        <v>0.9843886289565944</v>
+      </c>
+      <c r="Q23">
+        <v>0.9843886289565943</v>
+      </c>
+      <c r="R23">
+        <v>1.028166731295848</v>
+      </c>
+      <c r="S23">
+        <v>1.028166731295848</v>
+      </c>
+      <c r="T23">
+        <v>1.013434525129034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.08295033050546884</v>
+      </c>
+      <c r="D24">
+        <v>1.872201884411598</v>
+      </c>
+      <c r="E24">
+        <v>0.08295033050546884</v>
+      </c>
+      <c r="F24">
+        <v>1.291663990849878</v>
+      </c>
+      <c r="G24">
+        <v>1.204496121253931</v>
+      </c>
+      <c r="H24">
+        <v>0.05449475739745575</v>
+      </c>
+      <c r="I24">
+        <v>1.291663990849878</v>
+      </c>
+      <c r="J24">
+        <v>0.8970324175091774</v>
+      </c>
+      <c r="K24">
+        <v>1.291663990849878</v>
+      </c>
+      <c r="L24">
+        <v>1.872201884411598</v>
+      </c>
+      <c r="M24">
+        <v>0.9775761074585336</v>
+      </c>
+      <c r="N24">
+        <v>0.9775761074585336</v>
+      </c>
+      <c r="O24">
+        <v>1.053216112056999</v>
+      </c>
+      <c r="P24">
+        <v>1.082272068588982</v>
+      </c>
+      <c r="Q24">
+        <v>1.082272068588982</v>
+      </c>
+      <c r="R24">
+        <v>1.134620049154206</v>
+      </c>
+      <c r="S24">
+        <v>1.134620049154206</v>
+      </c>
+      <c r="T24">
+        <v>0.9004732503212516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.985364889919626</v>
+      </c>
+      <c r="D25">
+        <v>0.4352659370741574</v>
+      </c>
+      <c r="E25">
+        <v>1.985364889919626</v>
+      </c>
+      <c r="F25">
+        <v>0.8209179269146976</v>
+      </c>
+      <c r="G25">
+        <v>0.5522788786390546</v>
+      </c>
+      <c r="H25">
+        <v>2.18003985223065</v>
+      </c>
+      <c r="I25">
+        <v>0.8209179269146976</v>
+      </c>
+      <c r="J25">
+        <v>0.6965456643618477</v>
+      </c>
+      <c r="K25">
+        <v>0.8209179269146976</v>
+      </c>
+      <c r="L25">
+        <v>0.4352659370741574</v>
+      </c>
+      <c r="M25">
+        <v>1.210315413496892</v>
+      </c>
+      <c r="N25">
+        <v>1.210315413496892</v>
+      </c>
+      <c r="O25">
+        <v>0.9909699018776128</v>
+      </c>
+      <c r="P25">
+        <v>1.080516251302827</v>
+      </c>
+      <c r="Q25">
+        <v>1.080516251302827</v>
+      </c>
+      <c r="R25">
+        <v>1.015616670205795</v>
+      </c>
+      <c r="S25">
+        <v>1.015616670205795</v>
+      </c>
+      <c r="T25">
+        <v>1.111735524856672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3.833118434014641</v>
+      </c>
+      <c r="D26">
+        <v>0.921639598403602</v>
+      </c>
+      <c r="E26">
+        <v>3.833118434014641</v>
+      </c>
+      <c r="F26">
+        <v>0.0008001724272154217</v>
+      </c>
+      <c r="G26">
+        <v>1.892633668346419</v>
+      </c>
+      <c r="H26">
+        <v>1.56754999196616</v>
+      </c>
+      <c r="I26">
+        <v>0.0008001724272154217</v>
+      </c>
+      <c r="J26">
+        <v>0.458924920822224</v>
+      </c>
+      <c r="K26">
+        <v>0.0008001724272154217</v>
+      </c>
+      <c r="L26">
+        <v>0.921639598403602</v>
+      </c>
+      <c r="M26">
+        <v>2.377379016209122</v>
+      </c>
+      <c r="N26">
+        <v>2.377379016209122</v>
+      </c>
+      <c r="O26">
+        <v>2.215797233588221</v>
+      </c>
+      <c r="P26">
+        <v>1.58518606828182</v>
+      </c>
+      <c r="Q26">
+        <v>1.58518606828182</v>
+      </c>
+      <c r="R26">
+        <v>1.189089594318169</v>
+      </c>
+      <c r="S26">
+        <v>1.189089594318169</v>
+      </c>
+      <c r="T26">
+        <v>1.445777797663377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.003550613755952988</v>
+      </c>
+      <c r="D27">
+        <v>1.254772966985912</v>
+      </c>
+      <c r="E27">
+        <v>0.003550613755952988</v>
+      </c>
+      <c r="F27">
+        <v>0.6591969602014227</v>
+      </c>
+      <c r="G27">
+        <v>1.037479104080533</v>
+      </c>
+      <c r="H27">
+        <v>0.0001804650347443722</v>
+      </c>
+      <c r="I27">
+        <v>0.6591969602014227</v>
+      </c>
+      <c r="J27">
+        <v>1.510632512469594</v>
+      </c>
+      <c r="K27">
+        <v>0.6591969602014227</v>
+      </c>
+      <c r="L27">
+        <v>1.254772966985912</v>
+      </c>
+      <c r="M27">
+        <v>0.6291617903709326</v>
+      </c>
+      <c r="N27">
+        <v>0.6291617903709326</v>
+      </c>
+      <c r="O27">
+        <v>0.765267561607466</v>
+      </c>
+      <c r="P27">
+        <v>0.6391735136477626</v>
+      </c>
+      <c r="Q27">
+        <v>0.6391735136477626</v>
+      </c>
+      <c r="R27">
+        <v>0.6441793752861777</v>
+      </c>
+      <c r="S27">
+        <v>0.6441793752861777</v>
+      </c>
+      <c r="T27">
+        <v>0.7443021037546932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2384380910950247</v>
+      </c>
+      <c r="D28">
+        <v>1.619276220715629</v>
+      </c>
+      <c r="E28">
+        <v>0.2384380910950247</v>
+      </c>
+      <c r="F28">
+        <v>1.569790947174602</v>
+      </c>
+      <c r="G28">
+        <v>1.643414840921166</v>
+      </c>
+      <c r="H28">
+        <v>0.3408806444959666</v>
+      </c>
+      <c r="I28">
+        <v>1.569790947174602</v>
+      </c>
+      <c r="J28">
+        <v>0.4221730677029157</v>
+      </c>
+      <c r="K28">
+        <v>1.569790947174602</v>
+      </c>
+      <c r="L28">
+        <v>1.619276220715629</v>
+      </c>
+      <c r="M28">
+        <v>0.928857155905327</v>
+      </c>
+      <c r="N28">
+        <v>0.928857155905327</v>
+      </c>
+      <c r="O28">
+        <v>1.167043050910607</v>
+      </c>
+      <c r="P28">
+        <v>1.142501752995085</v>
+      </c>
+      <c r="Q28">
+        <v>1.142501752995085</v>
+      </c>
+      <c r="R28">
+        <v>1.249324051539965</v>
+      </c>
+      <c r="S28">
+        <v>1.249324051539965</v>
+      </c>
+      <c r="T28">
+        <v>0.9723289686842175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4740073236618147</v>
+      </c>
+      <c r="D29">
+        <v>1.434299193916378</v>
+      </c>
+      <c r="E29">
+        <v>0.4740073236618147</v>
+      </c>
+      <c r="F29">
+        <v>1.346218345045845</v>
+      </c>
+      <c r="G29">
+        <v>1.425237863703874</v>
+      </c>
+      <c r="H29">
+        <v>0.5132317001956341</v>
+      </c>
+      <c r="I29">
+        <v>1.346218345045845</v>
+      </c>
+      <c r="J29">
+        <v>0.5942403234240513</v>
+      </c>
+      <c r="K29">
+        <v>1.346218345045845</v>
+      </c>
+      <c r="L29">
+        <v>1.434299193916378</v>
+      </c>
+      <c r="M29">
+        <v>0.9541532587890962</v>
+      </c>
+      <c r="N29">
+        <v>0.9541532587890962</v>
+      </c>
+      <c r="O29">
+        <v>1.111181460427355</v>
+      </c>
+      <c r="P29">
+        <v>1.084841620874679</v>
+      </c>
+      <c r="Q29">
+        <v>1.084841620874679</v>
+      </c>
+      <c r="R29">
+        <v>1.150185801917471</v>
+      </c>
+      <c r="S29">
+        <v>1.150185801917471</v>
+      </c>
+      <c r="T29">
+        <v>0.964539124991266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9482472607510765</v>
+      </c>
+      <c r="D30">
+        <v>1.059069746158898</v>
+      </c>
+      <c r="E30">
+        <v>0.9482472607510765</v>
+      </c>
+      <c r="F30">
+        <v>0.9246361398626233</v>
+      </c>
+      <c r="G30">
+        <v>0.989166516172213</v>
+      </c>
+      <c r="H30">
+        <v>0.8631920388009655</v>
+      </c>
+      <c r="I30">
+        <v>0.9246361398626233</v>
+      </c>
+      <c r="J30">
+        <v>0.9370252452935902</v>
+      </c>
+      <c r="K30">
+        <v>0.9246361398626233</v>
+      </c>
+      <c r="L30">
+        <v>1.059069746158898</v>
+      </c>
+      <c r="M30">
+        <v>1.003658503454987</v>
+      </c>
+      <c r="N30">
+        <v>1.003658503454987</v>
+      </c>
+      <c r="O30">
+        <v>0.9988278410273957</v>
+      </c>
+      <c r="P30">
+        <v>0.9773177155908659</v>
+      </c>
+      <c r="Q30">
+        <v>0.9773177155908659</v>
+      </c>
+      <c r="R30">
+        <v>0.9641473216588052</v>
+      </c>
+      <c r="S30">
+        <v>0.9641473216588052</v>
+      </c>
+      <c r="T30">
+        <v>0.9535561578398943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.7524607648950606</v>
+      </c>
+      <c r="D31">
+        <v>1.148289884610879</v>
+      </c>
+      <c r="E31">
+        <v>0.7524607648950606</v>
+      </c>
+      <c r="F31">
+        <v>0.7151967887788574</v>
+      </c>
+      <c r="G31">
+        <v>0.9417349735096817</v>
+      </c>
+      <c r="H31">
+        <v>0.9078661990175032</v>
+      </c>
+      <c r="I31">
+        <v>0.7151967887788574</v>
+      </c>
+      <c r="J31">
+        <v>0.9534304391647979</v>
+      </c>
+      <c r="K31">
+        <v>0.7151967887788574</v>
+      </c>
+      <c r="L31">
+        <v>1.148289884610879</v>
+      </c>
+      <c r="M31">
+        <v>0.9503753247529698</v>
+      </c>
+      <c r="N31">
+        <v>0.9503753247529698</v>
+      </c>
+      <c r="O31">
+        <v>0.9474952076718738</v>
+      </c>
+      <c r="P31">
+        <v>0.8719824794282657</v>
+      </c>
+      <c r="Q31">
+        <v>0.8719824794282657</v>
+      </c>
+      <c r="R31">
+        <v>0.8327860567659137</v>
+      </c>
+      <c r="S31">
+        <v>0.8327860567659137</v>
+      </c>
+      <c r="T31">
+        <v>0.9031631749961301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.002334096784657535</v>
+      </c>
+      <c r="D32">
+        <v>1.779105482482192</v>
+      </c>
+      <c r="E32">
+        <v>0.002334096784657535</v>
+      </c>
+      <c r="F32">
+        <v>2.189918670126576</v>
+      </c>
+      <c r="G32">
+        <v>1.835215493405754</v>
+      </c>
+      <c r="H32">
+        <v>0.165656541609589</v>
+      </c>
+      <c r="I32">
+        <v>2.189918670126576</v>
+      </c>
+      <c r="J32">
+        <v>0.2461711349581369</v>
+      </c>
+      <c r="K32">
+        <v>2.189918670126576</v>
+      </c>
+      <c r="L32">
+        <v>1.779105482482192</v>
+      </c>
+      <c r="M32">
+        <v>0.8907197896334249</v>
+      </c>
+      <c r="N32">
+        <v>0.8907197896334249</v>
+      </c>
+      <c r="O32">
+        <v>1.205551690890868</v>
+      </c>
+      <c r="P32">
+        <v>1.323786083131142</v>
+      </c>
+      <c r="Q32">
+        <v>1.323786083131142</v>
+      </c>
+      <c r="R32">
+        <v>1.54031922988</v>
+      </c>
+      <c r="S32">
+        <v>1.54031922988</v>
+      </c>
+      <c r="T32">
+        <v>1.036400236561151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>3.406779577163157</v>
+      </c>
+      <c r="D33">
+        <v>1.730264594942105</v>
+      </c>
+      <c r="E33">
+        <v>3.406779577163157</v>
+      </c>
+      <c r="F33">
+        <v>1.704684333309526</v>
+      </c>
+      <c r="G33">
+        <v>0.03230686262736841</v>
+      </c>
+      <c r="H33">
+        <v>5.183445915668421</v>
+      </c>
+      <c r="I33">
+        <v>1.704684333309526</v>
+      </c>
+      <c r="J33">
+        <v>0.1288800258105263</v>
+      </c>
+      <c r="K33">
+        <v>1.704684333309526</v>
+      </c>
+      <c r="L33">
+        <v>1.730264594942105</v>
+      </c>
+      <c r="M33">
+        <v>2.568522086052631</v>
+      </c>
+      <c r="N33">
+        <v>2.568522086052631</v>
+      </c>
+      <c r="O33">
+        <v>1.723117011577544</v>
+      </c>
+      <c r="P33">
+        <v>2.280576168471596</v>
+      </c>
+      <c r="Q33">
+        <v>2.280576168471596</v>
+      </c>
+      <c r="R33">
+        <v>2.136603209681079</v>
+      </c>
+      <c r="S33">
+        <v>2.136603209681079</v>
+      </c>
+      <c r="T33">
+        <v>2.031060218253518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.0008725682122105267</v>
+      </c>
+      <c r="D34">
+        <v>0.9317216662636841</v>
+      </c>
+      <c r="E34">
+        <v>0.0008725682122105267</v>
+      </c>
+      <c r="F34">
+        <v>2.926763954812632</v>
+      </c>
+      <c r="G34">
+        <v>0.03975178332047368</v>
+      </c>
+      <c r="H34">
+        <v>0.01703580641947368</v>
+      </c>
+      <c r="I34">
+        <v>2.926763954812632</v>
+      </c>
+      <c r="J34">
+        <v>1.012134918378947</v>
+      </c>
+      <c r="K34">
+        <v>2.926763954812632</v>
+      </c>
+      <c r="L34">
+        <v>0.9317216662636841</v>
+      </c>
+      <c r="M34">
+        <v>0.4662971172379473</v>
+      </c>
+      <c r="N34">
+        <v>0.4662971172379473</v>
+      </c>
+      <c r="O34">
+        <v>0.3241153392654561</v>
+      </c>
+      <c r="P34">
+        <v>1.286452729762842</v>
+      </c>
+      <c r="Q34">
+        <v>1.286452729762842</v>
+      </c>
+      <c r="R34">
+        <v>1.69653053602529</v>
+      </c>
+      <c r="S34">
+        <v>1.69653053602529</v>
+      </c>
+      <c r="T34">
+        <v>0.8213801162345703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4788722864298926</v>
+      </c>
+      <c r="D35">
+        <v>0.9955997298227246</v>
+      </c>
+      <c r="E35">
+        <v>0.4788722864298926</v>
+      </c>
+      <c r="F35">
+        <v>0.4202201587971552</v>
+      </c>
+      <c r="G35">
+        <v>0.4950930687682939</v>
+      </c>
+      <c r="H35">
+        <v>0.431962475498656</v>
+      </c>
+      <c r="I35">
+        <v>0.4202201587971552</v>
+      </c>
+      <c r="J35">
+        <v>0.4858461659213149</v>
+      </c>
+      <c r="K35">
+        <v>0.4202201587971552</v>
+      </c>
+      <c r="L35">
+        <v>0.9955997298227246</v>
+      </c>
+      <c r="M35">
+        <v>0.7372360081263086</v>
+      </c>
+      <c r="N35">
+        <v>0.7372360081263086</v>
+      </c>
+      <c r="O35">
+        <v>0.6565216950069704</v>
+      </c>
+      <c r="P35">
+        <v>0.6315640583499241</v>
+      </c>
+      <c r="Q35">
+        <v>0.6315640583499241</v>
+      </c>
+      <c r="R35">
+        <v>0.5787280834617319</v>
+      </c>
+      <c r="S35">
+        <v>0.5787280834617319</v>
+      </c>
+      <c r="T35">
+        <v>0.5512656475396729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000258105021886</v>
+      </c>
+      <c r="D36">
+        <v>0.9937650343025141</v>
+      </c>
+      <c r="E36">
+        <v>1.000258105021886</v>
+      </c>
+      <c r="F36">
+        <v>0.9889360096948179</v>
+      </c>
+      <c r="G36">
+        <v>0.9917308942291112</v>
+      </c>
+      <c r="H36">
+        <v>1.003827199346488</v>
+      </c>
+      <c r="I36">
+        <v>0.9889360096948179</v>
+      </c>
+      <c r="J36">
+        <v>0.9989631271050181</v>
+      </c>
+      <c r="K36">
+        <v>0.9889360096948179</v>
+      </c>
+      <c r="L36">
+        <v>0.9937650343025141</v>
+      </c>
+      <c r="M36">
+        <v>0.9970115696621999</v>
+      </c>
+      <c r="N36">
+        <v>0.9970115696621999</v>
+      </c>
+      <c r="O36">
+        <v>0.995251344517837</v>
+      </c>
+      <c r="P36">
+        <v>0.9943197163397391</v>
+      </c>
+      <c r="Q36">
+        <v>0.9943197163397391</v>
+      </c>
+      <c r="R36">
+        <v>0.9929737896785089</v>
+      </c>
+      <c r="S36">
+        <v>0.9929737896785089</v>
+      </c>
+      <c r="T36">
+        <v>0.9962467282833057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9985944281972277</v>
+      </c>
+      <c r="D37">
+        <v>1.020495749522984</v>
+      </c>
+      <c r="E37">
+        <v>0.9985944281972277</v>
+      </c>
+      <c r="F37">
+        <v>1.017273676556432</v>
+      </c>
+      <c r="G37">
+        <v>1.010453890867827</v>
+      </c>
+      <c r="H37">
+        <v>1.000376861317628</v>
+      </c>
+      <c r="I37">
+        <v>1.017273676556432</v>
+      </c>
+      <c r="J37">
+        <v>0.995616987238511</v>
+      </c>
+      <c r="K37">
+        <v>1.017273676556432</v>
+      </c>
+      <c r="L37">
+        <v>1.020495749522984</v>
+      </c>
+      <c r="M37">
+        <v>1.009545088860106</v>
+      </c>
+      <c r="N37">
+        <v>1.009545088860106</v>
+      </c>
+      <c r="O37">
+        <v>1.00984802286268</v>
+      </c>
+      <c r="P37">
+        <v>1.012121284758881</v>
+      </c>
+      <c r="Q37">
+        <v>1.012121284758881</v>
+      </c>
+      <c r="R37">
+        <v>1.013409382708269</v>
+      </c>
+      <c r="S37">
+        <v>1.013409382708269</v>
+      </c>
+      <c r="T37">
+        <v>1.007135265616768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9905535722443565</v>
+      </c>
+      <c r="D38">
+        <v>0.952477591907178</v>
+      </c>
+      <c r="E38">
+        <v>0.9905535722443565</v>
+      </c>
+      <c r="F38">
+        <v>1.088434542812222</v>
+      </c>
+      <c r="G38">
+        <v>0.9249353827573356</v>
+      </c>
+      <c r="H38">
+        <v>0.9574631341769664</v>
+      </c>
+      <c r="I38">
+        <v>1.088434542812222</v>
+      </c>
+      <c r="J38">
+        <v>0.9603547343663217</v>
+      </c>
+      <c r="K38">
+        <v>1.088434542812222</v>
+      </c>
+      <c r="L38">
+        <v>0.952477591907178</v>
+      </c>
+      <c r="M38">
+        <v>0.9715155820757673</v>
+      </c>
+      <c r="N38">
+        <v>0.9715155820757673</v>
+      </c>
+      <c r="O38">
+        <v>0.9559888489696234</v>
+      </c>
+      <c r="P38">
+        <v>1.010488568987919</v>
+      </c>
+      <c r="Q38">
+        <v>1.010488568987919</v>
+      </c>
+      <c r="R38">
+        <v>1.029975062443995</v>
+      </c>
+      <c r="S38">
+        <v>1.029975062443995</v>
+      </c>
+      <c r="T38">
+        <v>0.9790364930440635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.228794388140687</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.8638776531751701</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.228794388140687</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.8573195400508375</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.888797363239329</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.084117561225058</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.8573195400508375</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.8641423544210545</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.8573195400508375</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.8638776531751701</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.046336020657928</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.046336020657928</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9938231348517287</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9833305271222313</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9833305271222316</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9518277803543831</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9518277803543831</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.964508143375356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8462768398025659</v>
+      </c>
+      <c r="D40">
+        <v>1.045692379239668</v>
+      </c>
+      <c r="E40">
+        <v>0.8462768398025659</v>
+      </c>
+      <c r="F40">
+        <v>0.9131631911514038</v>
+      </c>
+      <c r="G40">
+        <v>0.804399414869023</v>
+      </c>
+      <c r="H40">
+        <v>1.669499548348724</v>
+      </c>
+      <c r="I40">
+        <v>0.9131631911514038</v>
+      </c>
+      <c r="J40">
+        <v>0.995501508644803</v>
+      </c>
+      <c r="K40">
+        <v>0.9131631911514038</v>
+      </c>
+      <c r="L40">
+        <v>1.045692379239668</v>
+      </c>
+      <c r="M40">
+        <v>0.9459846095211166</v>
+      </c>
+      <c r="N40">
+        <v>0.9459846095211166</v>
+      </c>
+      <c r="O40">
+        <v>0.8987895446370855</v>
+      </c>
+      <c r="P40">
+        <v>0.9350441367312122</v>
+      </c>
+      <c r="Q40">
+        <v>0.9350441367312124</v>
+      </c>
+      <c r="R40">
+        <v>0.9295739003362602</v>
+      </c>
+      <c r="S40">
+        <v>0.9295739003362602</v>
+      </c>
+      <c r="T40">
+        <v>1.045755480342698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9582845404786249</v>
+      </c>
+      <c r="D41">
+        <v>1.001680561037826</v>
+      </c>
+      <c r="E41">
+        <v>0.9582845404786249</v>
+      </c>
+      <c r="F41">
+        <v>1.061105060115923</v>
+      </c>
+      <c r="G41">
+        <v>0.9708560968125985</v>
+      </c>
+      <c r="H41">
+        <v>0.8422373089019033</v>
+      </c>
+      <c r="I41">
+        <v>1.061105060115923</v>
+      </c>
+      <c r="J41">
+        <v>1.014169825215516</v>
+      </c>
+      <c r="K41">
+        <v>1.061105060115923</v>
+      </c>
+      <c r="L41">
+        <v>1.001680561037826</v>
+      </c>
+      <c r="M41">
+        <v>0.9799825507582254</v>
+      </c>
+      <c r="N41">
+        <v>0.9799825507582254</v>
+      </c>
+      <c r="O41">
+        <v>0.9769403994430164</v>
+      </c>
+      <c r="P41">
+        <v>1.007023387210791</v>
+      </c>
+      <c r="Q41">
+        <v>1.007023387210791</v>
+      </c>
+      <c r="R41">
+        <v>1.020543805437074</v>
+      </c>
+      <c r="S41">
+        <v>1.020543805437074</v>
+      </c>
+      <c r="T41">
+        <v>0.974722232093732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.393903467392288</v>
+      </c>
+      <c r="D42">
+        <v>1.487703507117707</v>
+      </c>
+      <c r="E42">
+        <v>1.393903467392288</v>
+      </c>
+      <c r="F42">
+        <v>0.4531203130403818</v>
+      </c>
+      <c r="G42">
+        <v>0.9038541072409103</v>
+      </c>
+      <c r="H42">
+        <v>0.9517459419882301</v>
+      </c>
+      <c r="I42">
+        <v>0.4531203130403818</v>
+      </c>
+      <c r="J42">
+        <v>1.000751922520838</v>
+      </c>
+      <c r="K42">
+        <v>0.4531203130403818</v>
+      </c>
+      <c r="L42">
+        <v>1.487703507117707</v>
+      </c>
+      <c r="M42">
+        <v>1.440803487254997</v>
+      </c>
+      <c r="N42">
+        <v>1.440803487254997</v>
+      </c>
+      <c r="O42">
+        <v>1.261820360583635</v>
+      </c>
+      <c r="P42">
+        <v>1.111575762516792</v>
+      </c>
+      <c r="Q42">
+        <v>1.111575762516792</v>
+      </c>
+      <c r="R42">
+        <v>0.9469619001476896</v>
+      </c>
+      <c r="S42">
+        <v>0.9469619001476896</v>
+      </c>
+      <c r="T42">
+        <v>1.031846543216726</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.040040769848634</v>
+        <v>0.9959635077497173</v>
       </c>
       <c r="D3">
-        <v>0.9452564402012327</v>
+        <v>0.9998976365775045</v>
       </c>
       <c r="E3">
-        <v>1.04621878292398</v>
+        <v>0.9959635077497173</v>
       </c>
       <c r="F3">
-        <v>1.040040769848634</v>
+        <v>1.01737639691933</v>
       </c>
       <c r="G3">
-        <v>0.9754192663722134</v>
+        <v>0.9968950915288778</v>
       </c>
       <c r="H3">
-        <v>1.033073608695943</v>
+        <v>1.003246040371059</v>
       </c>
       <c r="I3">
-        <v>0.95920784574783</v>
+        <v>1.01737639691933</v>
       </c>
       <c r="J3">
-        <v>0.9452564402012327</v>
+        <v>0.9983253523706647</v>
       </c>
       <c r="K3">
-        <v>1.040040769848634</v>
+        <v>1.01737639691933</v>
       </c>
       <c r="L3">
-        <v>1.04621878292398</v>
+        <v>0.9998976365775045</v>
       </c>
       <c r="M3">
-        <v>0.9957376115626061</v>
+        <v>0.9979305721636109</v>
       </c>
       <c r="N3">
-        <v>0.9957376115626061</v>
+        <v>0.9979305721636109</v>
       </c>
       <c r="O3">
-        <v>1.008182943940385</v>
+        <v>0.9975854119520332</v>
       </c>
       <c r="P3">
-        <v>1.010505330991282</v>
+        <v>1.004412513748851</v>
       </c>
       <c r="Q3">
-        <v>1.010505330991282</v>
+        <v>1.004412513748851</v>
       </c>
       <c r="R3">
-        <v>1.01788919070562</v>
+        <v>1.00765348454147</v>
       </c>
       <c r="S3">
-        <v>1.01788919070562</v>
+        <v>1.00765348454147</v>
       </c>
       <c r="T3">
-        <v>0.9998694522983055</v>
+        <v>1.001950670919526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.093229033325613</v>
+        <v>0.8462768398025659</v>
       </c>
       <c r="D4">
-        <v>0.8636529284385208</v>
+        <v>1.045692379239668</v>
       </c>
       <c r="E4">
-        <v>1.049840317304674</v>
+        <v>0.8462768398025659</v>
       </c>
       <c r="F4">
-        <v>1.093229033325613</v>
+        <v>0.9131631911514038</v>
       </c>
       <c r="G4">
-        <v>0.9226603018680085</v>
+        <v>0.804399414869023</v>
       </c>
       <c r="H4">
-        <v>1.111664845330716</v>
+        <v>1.669499548348724</v>
       </c>
       <c r="I4">
-        <v>0.9457823457905921</v>
+        <v>0.9131631911514038</v>
       </c>
       <c r="J4">
-        <v>0.8636529284385208</v>
+        <v>0.995501508644803</v>
       </c>
       <c r="K4">
-        <v>1.093229033325613</v>
+        <v>0.9131631911514038</v>
       </c>
       <c r="L4">
-        <v>1.049840317304674</v>
+        <v>1.045692379239668</v>
       </c>
       <c r="M4">
-        <v>0.9567466228715973</v>
+        <v>0.9459846095211166</v>
       </c>
       <c r="N4">
-        <v>0.9567466228715973</v>
+        <v>0.9459846095211166</v>
       </c>
       <c r="O4">
-        <v>1.00838603035797</v>
+        <v>0.8987895446370855</v>
       </c>
       <c r="P4">
-        <v>1.002240759689603</v>
+        <v>0.9350441367312122</v>
       </c>
       <c r="Q4">
-        <v>1.002240759689603</v>
+        <v>0.9350441367312124</v>
       </c>
       <c r="R4">
-        <v>1.024987828098605</v>
+        <v>0.9295739003362602</v>
       </c>
       <c r="S4">
-        <v>1.024987828098605</v>
+        <v>0.9295739003362602</v>
       </c>
       <c r="T4">
-        <v>0.9978049620096874</v>
+        <v>1.045755480342698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.030077739855052</v>
+        <v>0.8892196025425446</v>
       </c>
       <c r="D5">
-        <v>1.079105688780985</v>
+        <v>1.077148032208467</v>
       </c>
       <c r="E5">
-        <v>1.193792957776767</v>
+        <v>0.8892196025425446</v>
       </c>
       <c r="F5">
-        <v>1.030077739855052</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="G5">
-        <v>0.9647230825363421</v>
+        <v>0.9731119226213246</v>
       </c>
       <c r="H5">
-        <v>1.189037126510028</v>
+        <v>0.8108834139927934</v>
       </c>
       <c r="I5">
-        <v>0.7578918198054169</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="J5">
-        <v>1.079105688780985</v>
+        <v>0.9028288198253097</v>
       </c>
       <c r="K5">
-        <v>1.030077739855052</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="L5">
-        <v>1.193792957776767</v>
+        <v>1.077148032208467</v>
       </c>
       <c r="M5">
-        <v>1.136449323278876</v>
+        <v>0.9831838173755061</v>
       </c>
       <c r="N5">
-        <v>1.136449323278876</v>
+        <v>0.9831838173755061</v>
       </c>
       <c r="O5">
-        <v>1.153978591022593</v>
+        <v>0.9798265191241122</v>
       </c>
       <c r="P5">
-        <v>1.100992128804268</v>
+        <v>0.9551778197348395</v>
       </c>
       <c r="Q5">
-        <v>1.100992128804268</v>
+        <v>0.9551778197348394</v>
       </c>
       <c r="R5">
-        <v>1.083263531566964</v>
+        <v>0.9411748209145061</v>
       </c>
       <c r="S5">
-        <v>1.083263531566964</v>
+        <v>0.9411748209145061</v>
       </c>
       <c r="T5">
-        <v>1.035771402544098</v>
+        <v>0.9253929359406575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.814694690987474</v>
+        <v>0.4788722864298926</v>
       </c>
       <c r="D6">
-        <v>0.3432910311698499</v>
+        <v>0.9955997298227246</v>
       </c>
       <c r="E6">
-        <v>1.891271888656094</v>
+        <v>0.4788722864298926</v>
       </c>
       <c r="F6">
-        <v>1.814694690987474</v>
+        <v>0.4202201587971552</v>
       </c>
       <c r="G6">
-        <v>0.6405722402140277</v>
+        <v>0.4950930687682939</v>
       </c>
       <c r="H6">
-        <v>1.537526523260113</v>
+        <v>0.431962475498656</v>
       </c>
       <c r="I6">
-        <v>0.5243746338197803</v>
+        <v>0.4202201587971552</v>
       </c>
       <c r="J6">
-        <v>0.3432910311698499</v>
+        <v>0.4858461659213149</v>
       </c>
       <c r="K6">
-        <v>1.814694690987474</v>
+        <v>0.4202201587971552</v>
       </c>
       <c r="L6">
-        <v>1.891271888656094</v>
+        <v>0.9955997298227246</v>
       </c>
       <c r="M6">
-        <v>1.117281459912972</v>
+        <v>0.7372360081263086</v>
       </c>
       <c r="N6">
-        <v>1.117281459912972</v>
+        <v>0.7372360081263086</v>
       </c>
       <c r="O6">
-        <v>1.257363147695352</v>
+        <v>0.6565216950069704</v>
       </c>
       <c r="P6">
-        <v>1.349752536937806</v>
+        <v>0.6315640583499241</v>
       </c>
       <c r="Q6">
-        <v>1.349752536937806</v>
+        <v>0.6315640583499241</v>
       </c>
       <c r="R6">
-        <v>1.465988075450223</v>
+        <v>0.5787280834617319</v>
       </c>
       <c r="S6">
-        <v>1.465988075450223</v>
+        <v>0.5787280834617319</v>
       </c>
       <c r="T6">
-        <v>1.125288501351223</v>
+        <v>0.5512656475396729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003985322765041</v>
+        <v>0.9546101430249853</v>
       </c>
       <c r="D7">
-        <v>0.9989717930672022</v>
+        <v>1.026579975002694</v>
       </c>
       <c r="E7">
-        <v>1.000240911224443</v>
+        <v>0.9546101430249853</v>
       </c>
       <c r="F7">
-        <v>1.003985322765041</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="G7">
-        <v>0.9993843310730489</v>
+        <v>1.034257983086298</v>
       </c>
       <c r="H7">
-        <v>0.9987413440454694</v>
+        <v>0.9533605094713952</v>
       </c>
       <c r="I7">
-        <v>0.9989629437670597</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="J7">
-        <v>0.9989717930672022</v>
+        <v>0.9665965497835024</v>
       </c>
       <c r="K7">
-        <v>1.003985322765041</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="L7">
-        <v>1.000240911224443</v>
+        <v>1.026579975002694</v>
       </c>
       <c r="M7">
-        <v>0.9996063521458224</v>
+        <v>0.9905950590138395</v>
       </c>
       <c r="N7">
-        <v>0.9996063521458224</v>
+        <v>0.9905950590138395</v>
       </c>
       <c r="O7">
-        <v>0.9993180161123715</v>
+        <v>1.005149367037992</v>
       </c>
       <c r="P7">
-        <v>1.001066009018895</v>
+        <v>1.002777432473762</v>
       </c>
       <c r="Q7">
-        <v>1.001066009018895</v>
+        <v>1.002777432473762</v>
       </c>
       <c r="R7">
-        <v>1.001795837455431</v>
+        <v>1.008868619203724</v>
       </c>
       <c r="S7">
-        <v>1.001795837455431</v>
+        <v>1.008868619203724</v>
       </c>
       <c r="T7">
-        <v>1.000047774323711</v>
+        <v>0.9937578899604137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.01737639691933</v>
+        <v>0.9985944281972277</v>
       </c>
       <c r="D8">
-        <v>0.9959635077497179</v>
+        <v>1.020495749522984</v>
       </c>
       <c r="E8">
-        <v>0.999897636577504</v>
+        <v>0.9985944281972277</v>
       </c>
       <c r="F8">
-        <v>1.01737639691933</v>
+        <v>1.017273676556432</v>
       </c>
       <c r="G8">
-        <v>1.00324604037106</v>
+        <v>1.010453890867827</v>
       </c>
       <c r="H8">
-        <v>0.9968950915288773</v>
+        <v>1.000376861317628</v>
       </c>
       <c r="I8">
-        <v>0.9983253523706657</v>
+        <v>1.017273676556432</v>
       </c>
       <c r="J8">
-        <v>0.9959635077497179</v>
+        <v>0.995616987238511</v>
       </c>
       <c r="K8">
-        <v>1.01737639691933</v>
+        <v>1.017273676556432</v>
       </c>
       <c r="L8">
-        <v>0.999897636577504</v>
+        <v>1.020495749522984</v>
       </c>
       <c r="M8">
-        <v>0.9979305721636109</v>
+        <v>1.009545088860106</v>
       </c>
       <c r="N8">
-        <v>0.9979305721636109</v>
+        <v>1.009545088860106</v>
       </c>
       <c r="O8">
-        <v>0.997585411952033</v>
+        <v>1.00984802286268</v>
       </c>
       <c r="P8">
-        <v>1.004412513748851</v>
+        <v>1.012121284758881</v>
       </c>
       <c r="Q8">
-        <v>1.004412513748851</v>
+        <v>1.012121284758881</v>
       </c>
       <c r="R8">
-        <v>1.00765348454147</v>
+        <v>1.013409382708269</v>
       </c>
       <c r="S8">
-        <v>1.00765348454147</v>
+        <v>1.013409382708269</v>
       </c>
       <c r="T8">
-        <v>1.001950670919526</v>
+        <v>1.007135265616768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.062678156366779</v>
+        <v>0.8636529284385208</v>
       </c>
       <c r="D9">
-        <v>1.001071944549756</v>
+        <v>1.049840317304674</v>
       </c>
       <c r="E9">
-        <v>1.015685253740094</v>
+        <v>0.8636529284385208</v>
       </c>
       <c r="F9">
-        <v>1.062678156366779</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="G9">
-        <v>1.000389477091559</v>
+        <v>1.111664845330716</v>
       </c>
       <c r="H9">
-        <v>1.000320307287453</v>
+        <v>0.9226603018680085</v>
       </c>
       <c r="I9">
-        <v>0.995570930976271</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="J9">
-        <v>1.001071944549756</v>
+        <v>0.9457823457905921</v>
       </c>
       <c r="K9">
-        <v>1.062678156366779</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="L9">
-        <v>1.015685253740094</v>
+        <v>1.049840317304674</v>
       </c>
       <c r="M9">
-        <v>1.008378599144925</v>
+        <v>0.9567466228715973</v>
       </c>
       <c r="N9">
-        <v>1.008378599144925</v>
+        <v>0.9567466228715973</v>
       </c>
       <c r="O9">
-        <v>1.005692501859101</v>
+        <v>1.00838603035797</v>
       </c>
       <c r="P9">
-        <v>1.02647845155221</v>
+        <v>1.002240759689603</v>
       </c>
       <c r="Q9">
-        <v>1.02647845155221</v>
+        <v>1.002240759689603</v>
       </c>
       <c r="R9">
-        <v>1.035528377755852</v>
+        <v>1.024987828098605</v>
       </c>
       <c r="S9">
-        <v>1.035528377755852</v>
+        <v>1.024987828098605</v>
       </c>
       <c r="T9">
-        <v>1.012619345001985</v>
+        <v>0.9978049620096874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.079682422802683</v>
+        <v>0.3820115951400729</v>
       </c>
       <c r="D10">
-        <v>0.987762838231971</v>
+        <v>1.030192458239591</v>
       </c>
       <c r="E10">
-        <v>0.9951243971830345</v>
+        <v>0.3820115951400729</v>
       </c>
       <c r="F10">
-        <v>1.079682422802683</v>
+        <v>0.3527659036907021</v>
       </c>
       <c r="G10">
-        <v>0.9985025727908839</v>
+        <v>0.491650349547914</v>
       </c>
       <c r="H10">
-        <v>0.9994983374792172</v>
+        <v>0.4187626778921151</v>
       </c>
       <c r="I10">
-        <v>0.9966170086462043</v>
+        <v>0.3527659036907021</v>
       </c>
       <c r="J10">
-        <v>0.987762838231971</v>
+        <v>0.4884087250354469</v>
       </c>
       <c r="K10">
-        <v>1.079682422802683</v>
+        <v>0.3527659036907021</v>
       </c>
       <c r="L10">
-        <v>0.9951243971830345</v>
+        <v>1.030192458239591</v>
       </c>
       <c r="M10">
-        <v>0.9914436177075028</v>
+        <v>0.7061020266898318</v>
       </c>
       <c r="N10">
-        <v>0.9914436177075028</v>
+        <v>0.7061020266898318</v>
       </c>
       <c r="O10">
-        <v>0.9941285242980742</v>
+        <v>0.6346181343091924</v>
       </c>
       <c r="P10">
-        <v>1.02085655273923</v>
+        <v>0.5883233190234552</v>
       </c>
       <c r="Q10">
-        <v>1.02085655273923</v>
+        <v>0.5883233190234552</v>
       </c>
       <c r="R10">
-        <v>1.035563020255093</v>
+        <v>0.529433965190267</v>
       </c>
       <c r="S10">
-        <v>1.035563020255093</v>
+        <v>0.529433965190267</v>
       </c>
       <c r="T10">
-        <v>1.009531262855666</v>
+        <v>0.5272986182576402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.159501038313611</v>
+        <v>0.7984864750944711</v>
       </c>
       <c r="D11">
-        <v>0.802460686616791</v>
+        <v>1.087403060710253</v>
       </c>
       <c r="E11">
-        <v>0.9912041619393813</v>
+        <v>0.7984864750944711</v>
       </c>
       <c r="F11">
-        <v>1.159501038313611</v>
+        <v>0.8514773253090631</v>
       </c>
       <c r="G11">
-        <v>1.104783192872266</v>
+        <v>0.8429718431222548</v>
       </c>
       <c r="H11">
-        <v>1.041024080581261</v>
+        <v>1.236521685894548</v>
       </c>
       <c r="I11">
-        <v>0.9816339904508917</v>
+        <v>0.8514773253090631</v>
       </c>
       <c r="J11">
-        <v>0.802460686616791</v>
+        <v>1.039810134272311</v>
       </c>
       <c r="K11">
-        <v>1.159501038313611</v>
+        <v>0.8514773253090631</v>
       </c>
       <c r="L11">
-        <v>0.9912041619393813</v>
+        <v>1.087403060710253</v>
       </c>
       <c r="M11">
-        <v>0.8968324242780862</v>
+        <v>0.9429447679023621</v>
       </c>
       <c r="N11">
-        <v>0.8968324242780862</v>
+        <v>0.9429447679023621</v>
       </c>
       <c r="O11">
-        <v>0.9448963097124778</v>
+        <v>0.9096204596423263</v>
       </c>
       <c r="P11">
-        <v>0.9843886289565944</v>
+        <v>0.9124556203712624</v>
       </c>
       <c r="Q11">
-        <v>0.9843886289565943</v>
+        <v>0.9124556203712624</v>
       </c>
       <c r="R11">
-        <v>1.028166731295848</v>
+        <v>0.8972110466057126</v>
       </c>
       <c r="S11">
-        <v>1.028166731295848</v>
+        <v>0.8972110466057126</v>
       </c>
       <c r="T11">
-        <v>1.013434525129034</v>
+        <v>0.9761117540671501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.291663990849877</v>
+        <v>0.69409957913576</v>
       </c>
       <c r="D12">
-        <v>0.08295033050546884</v>
+        <v>1.130243725001811</v>
       </c>
       <c r="E12">
-        <v>1.872201884411598</v>
+        <v>0.69409957913576</v>
       </c>
       <c r="F12">
-        <v>1.291663990849877</v>
+        <v>0.7092600730919045</v>
       </c>
       <c r="G12">
-        <v>0.05449475739745574</v>
+        <v>0.9121636849064783</v>
       </c>
       <c r="H12">
-        <v>1.204496121253933</v>
+        <v>0.8789030699550131</v>
       </c>
       <c r="I12">
-        <v>0.8970324175091775</v>
+        <v>0.7092600730919045</v>
       </c>
       <c r="J12">
-        <v>0.08295033050546884</v>
+        <v>0.8959895344754114</v>
       </c>
       <c r="K12">
-        <v>1.291663990849877</v>
+        <v>0.7092600730919045</v>
       </c>
       <c r="L12">
-        <v>1.872201884411598</v>
+        <v>1.130243725001811</v>
       </c>
       <c r="M12">
-        <v>0.9775761074585336</v>
+        <v>0.9121716520687857</v>
       </c>
       <c r="N12">
-        <v>0.9775761074585336</v>
+        <v>0.9121716520687857</v>
       </c>
       <c r="O12">
-        <v>1.053216112057</v>
+        <v>0.9121689963480165</v>
       </c>
       <c r="P12">
-        <v>1.082272068588982</v>
+        <v>0.8445344590764919</v>
       </c>
       <c r="Q12">
-        <v>1.082272068588982</v>
+        <v>0.8445344590764919</v>
       </c>
       <c r="R12">
-        <v>1.134620049154206</v>
+        <v>0.8107158625803451</v>
       </c>
       <c r="S12">
-        <v>1.134620049154206</v>
+        <v>0.8107158625803451</v>
       </c>
       <c r="T12">
-        <v>0.9004732503212519</v>
+        <v>0.8701099444277297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.820917926914697</v>
+        <v>0.6668610961117181</v>
       </c>
       <c r="D13">
-        <v>1.985364889919626</v>
+        <v>1.069491535443396</v>
       </c>
       <c r="E13">
-        <v>0.4352659370741575</v>
+        <v>0.6668610961117181</v>
       </c>
       <c r="F13">
-        <v>0.820917926914697</v>
+        <v>0.8090263037188058</v>
       </c>
       <c r="G13">
-        <v>2.18003985223065</v>
+        <v>0.9696878497980904</v>
       </c>
       <c r="H13">
-        <v>0.5522788786390548</v>
+        <v>1.07653024514256</v>
       </c>
       <c r="I13">
-        <v>0.6965456643618477</v>
+        <v>0.8090263037188058</v>
       </c>
       <c r="J13">
-        <v>1.985364889919626</v>
+        <v>1.052221191652125</v>
       </c>
       <c r="K13">
-        <v>0.820917926914697</v>
+        <v>0.8090263037188058</v>
       </c>
       <c r="L13">
-        <v>0.4352659370741575</v>
+        <v>1.069491535443396</v>
       </c>
       <c r="M13">
-        <v>1.210315413496892</v>
+        <v>0.8681763157775572</v>
       </c>
       <c r="N13">
-        <v>1.210315413496892</v>
+        <v>0.8681763157775572</v>
       </c>
       <c r="O13">
-        <v>0.9909699018776128</v>
+        <v>0.9020134937844015</v>
       </c>
       <c r="P13">
-        <v>1.080516251302827</v>
+        <v>0.8484596450913067</v>
       </c>
       <c r="Q13">
-        <v>1.080516251302827</v>
+        <v>0.8484596450913067</v>
       </c>
       <c r="R13">
-        <v>1.015616670205794</v>
+        <v>0.8386013097481815</v>
       </c>
       <c r="S13">
-        <v>1.015616670205794</v>
+        <v>0.8386013097481815</v>
       </c>
       <c r="T13">
-        <v>1.111735524856672</v>
+        <v>0.9406363703111159</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0008001724272154236</v>
+        <v>0.002693453900000002</v>
       </c>
       <c r="D14">
-        <v>3.833118434014639</v>
+        <v>0.9377522300000005</v>
       </c>
       <c r="E14">
-        <v>0.9216395984036023</v>
+        <v>0.002693453900000002</v>
       </c>
       <c r="F14">
-        <v>0.0008001724272154236</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="G14">
-        <v>1.567549991966158</v>
+        <v>0.01334174799999999</v>
       </c>
       <c r="H14">
-        <v>1.892633668346419</v>
+        <v>-0.007031168899999998</v>
       </c>
       <c r="I14">
-        <v>0.4589249208222241</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="J14">
-        <v>3.833118434014639</v>
+        <v>0.02770257600000002</v>
       </c>
       <c r="K14">
-        <v>0.0008001724272154236</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="L14">
-        <v>0.9216395984036023</v>
+        <v>0.9377522300000005</v>
       </c>
       <c r="M14">
-        <v>2.377379016209121</v>
+        <v>0.4702228419500002</v>
       </c>
       <c r="N14">
-        <v>2.377379016209121</v>
+        <v>0.4702228419500002</v>
       </c>
       <c r="O14">
-        <v>2.21579723358822</v>
+        <v>0.3179291439666668</v>
       </c>
       <c r="P14">
-        <v>1.585186068281819</v>
+        <v>0.3139451102333335</v>
       </c>
       <c r="Q14">
-        <v>1.585186068281819</v>
+        <v>0.3139451102333335</v>
       </c>
       <c r="R14">
-        <v>1.189089594318168</v>
+        <v>0.2358062443750001</v>
       </c>
       <c r="S14">
-        <v>1.189089594318168</v>
+        <v>0.2358062443750001</v>
       </c>
       <c r="T14">
-        <v>1.445777797663376</v>
+        <v>0.1626414143000001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6591969602014227</v>
+        <v>0.0030969418</v>
       </c>
       <c r="D15">
-        <v>0.003550613755952988</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="E15">
-        <v>1.254772966985912</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F15">
-        <v>0.6591969602014227</v>
+        <v>30.381976</v>
       </c>
       <c r="G15">
-        <v>0.0001804650347443718</v>
+        <v>0.0025420957</v>
       </c>
       <c r="H15">
-        <v>1.037479104080533</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="I15">
-        <v>1.510632512469594</v>
+        <v>30.381976</v>
       </c>
       <c r="J15">
-        <v>0.003550613755952988</v>
+        <v>0.0037430372</v>
       </c>
       <c r="K15">
-        <v>0.6591969602014227</v>
+        <v>30.381976</v>
       </c>
       <c r="L15">
-        <v>1.254772966985912</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M15">
-        <v>0.6291617903709326</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N15">
-        <v>0.6291617903709326</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O15">
-        <v>0.765267561607466</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P15">
-        <v>0.6391735136477626</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q15">
-        <v>0.6391735136477626</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R15">
-        <v>0.6441793752861777</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S15">
-        <v>0.6441793752861777</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T15">
-        <v>0.7443021037546932</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.988936009694817</v>
+        <v>-0.0087628992</v>
       </c>
       <c r="D16">
-        <v>1.000258105021887</v>
+        <v>0.012049533</v>
       </c>
       <c r="E16">
-        <v>0.9937650343025138</v>
+        <v>-0.0087628992</v>
       </c>
       <c r="F16">
-        <v>0.988936009694817</v>
+        <v>0.0057597681</v>
       </c>
       <c r="G16">
-        <v>1.003827199346487</v>
+        <v>-0.003035489</v>
       </c>
       <c r="H16">
-        <v>0.991730894229111</v>
+        <v>2.8160469</v>
       </c>
       <c r="I16">
-        <v>0.9989631271050189</v>
+        <v>0.0057597681</v>
       </c>
       <c r="J16">
-        <v>1.000258105021887</v>
+        <v>0.046195357</v>
       </c>
       <c r="K16">
-        <v>0.988936009694817</v>
+        <v>0.0057597681</v>
       </c>
       <c r="L16">
-        <v>0.9937650343025138</v>
+        <v>0.012049533</v>
       </c>
       <c r="M16">
-        <v>0.9970115696622002</v>
+        <v>0.0016433169</v>
       </c>
       <c r="N16">
-        <v>0.9970115696622002</v>
+        <v>0.0016433169</v>
       </c>
       <c r="O16">
-        <v>0.995251344517837</v>
+        <v>8.3714933333333E-05</v>
       </c>
       <c r="P16">
-        <v>0.9943197163397391</v>
+        <v>0.0030154673</v>
       </c>
       <c r="Q16">
-        <v>0.9943197163397391</v>
+        <v>0.0030154673</v>
       </c>
       <c r="R16">
-        <v>0.9929737896785087</v>
+        <v>0.0037015425</v>
       </c>
       <c r="S16">
-        <v>0.9929737896785087</v>
+        <v>0.0037015425</v>
       </c>
       <c r="T16">
-        <v>0.9962467282833057</v>
+        <v>0.4780421949833333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.017273676556432</v>
+        <v>-0.0014474625</v>
       </c>
       <c r="D17">
-        <v>0.9985944281972274</v>
+        <v>7.5423838</v>
       </c>
       <c r="E17">
-        <v>1.020495749522981</v>
+        <v>-0.0014474625</v>
       </c>
       <c r="F17">
-        <v>1.017273676556432</v>
+        <v>8.116031700000001</v>
       </c>
       <c r="G17">
-        <v>1.000376861317629</v>
+        <v>0.00089266024</v>
       </c>
       <c r="H17">
-        <v>1.010453890867827</v>
+        <v>0.0025346516</v>
       </c>
       <c r="I17">
-        <v>0.9956169872385106</v>
+        <v>8.116031700000001</v>
       </c>
       <c r="J17">
-        <v>0.9985944281972274</v>
+        <v>0.28993023</v>
       </c>
       <c r="K17">
-        <v>1.017273676556432</v>
+        <v>8.116031700000001</v>
       </c>
       <c r="L17">
-        <v>1.020495749522981</v>
+        <v>7.5423838</v>
       </c>
       <c r="M17">
-        <v>1.009545088860104</v>
+        <v>3.77046816875</v>
       </c>
       <c r="N17">
-        <v>1.009545088860104</v>
+        <v>3.77046816875</v>
       </c>
       <c r="O17">
-        <v>1.009848022862678</v>
+        <v>2.513942999246666</v>
       </c>
       <c r="P17">
-        <v>1.01212128475888</v>
+        <v>5.218989345833333</v>
       </c>
       <c r="Q17">
-        <v>1.01212128475888</v>
+        <v>5.218989345833333</v>
       </c>
       <c r="R17">
-        <v>1.013409382708268</v>
+        <v>5.943249934375</v>
       </c>
       <c r="S17">
-        <v>1.013409382708268</v>
+        <v>5.943249934375</v>
       </c>
       <c r="T17">
-        <v>1.007135265616768</v>
+        <v>2.658387596556667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.088434542812221</v>
+        <v>0.002334096784657535</v>
       </c>
       <c r="D18">
-        <v>0.9905535722443566</v>
+        <v>1.779105482482192</v>
       </c>
       <c r="E18">
-        <v>0.9524775919071767</v>
+        <v>0.002334096784657535</v>
       </c>
       <c r="F18">
-        <v>1.088434542812221</v>
+        <v>2.189918670126576</v>
       </c>
       <c r="G18">
-        <v>0.9574631341769667</v>
+        <v>1.835215493405754</v>
       </c>
       <c r="H18">
-        <v>0.9249353827573349</v>
+        <v>0.165656541609589</v>
       </c>
       <c r="I18">
-        <v>0.9603547343663219</v>
+        <v>2.189918670126576</v>
       </c>
       <c r="J18">
-        <v>0.9905535722443566</v>
+        <v>0.2461711349581369</v>
       </c>
       <c r="K18">
-        <v>1.088434542812221</v>
+        <v>2.189918670126576</v>
       </c>
       <c r="L18">
-        <v>0.9524775919071767</v>
+        <v>1.779105482482192</v>
       </c>
       <c r="M18">
-        <v>0.9715155820757666</v>
+        <v>0.8907197896334249</v>
       </c>
       <c r="N18">
-        <v>0.9715155820757666</v>
+        <v>0.8907197896334249</v>
       </c>
       <c r="O18">
-        <v>0.9559888489696227</v>
+        <v>1.205551690890868</v>
       </c>
       <c r="P18">
-        <v>1.010488568987918</v>
+        <v>1.323786083131142</v>
       </c>
       <c r="Q18">
-        <v>1.010488568987918</v>
+        <v>1.323786083131142</v>
       </c>
       <c r="R18">
-        <v>1.029975062443994</v>
+        <v>1.54031922988</v>
       </c>
       <c r="S18">
-        <v>1.029975062443994</v>
+        <v>1.54031922988</v>
       </c>
       <c r="T18">
-        <v>0.979036493044063</v>
+        <v>1.036400236561151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8573195400508375</v>
+        <v>3.406779577163157</v>
       </c>
       <c r="D19">
-        <v>1.228794388140687</v>
+        <v>1.730264594942105</v>
       </c>
       <c r="E19">
-        <v>0.8638776531751701</v>
+        <v>3.406779577163157</v>
       </c>
       <c r="F19">
-        <v>0.8573195400508375</v>
+        <v>1.704684333309526</v>
       </c>
       <c r="G19">
-        <v>1.084117561225058</v>
+        <v>0.03230686262736841</v>
       </c>
       <c r="H19">
-        <v>0.8887973632393288</v>
+        <v>5.183445915668421</v>
       </c>
       <c r="I19">
-        <v>0.8641423544210544</v>
+        <v>1.704684333309526</v>
       </c>
       <c r="J19">
-        <v>1.228794388140687</v>
+        <v>0.1288800258105263</v>
       </c>
       <c r="K19">
-        <v>0.8573195400508375</v>
+        <v>1.704684333309526</v>
       </c>
       <c r="L19">
-        <v>0.8638776531751701</v>
+        <v>1.730264594942105</v>
       </c>
       <c r="M19">
-        <v>1.046336020657928</v>
+        <v>2.568522086052631</v>
       </c>
       <c r="N19">
-        <v>1.046336020657928</v>
+        <v>2.568522086052631</v>
       </c>
       <c r="O19">
-        <v>0.9938231348517285</v>
+        <v>1.723117011577544</v>
       </c>
       <c r="P19">
-        <v>0.9833305271222313</v>
+        <v>2.280576168471596</v>
       </c>
       <c r="Q19">
-        <v>0.9833305271222316</v>
+        <v>2.280576168471596</v>
       </c>
       <c r="R19">
-        <v>0.9518277803543831</v>
+        <v>2.136603209681079</v>
       </c>
       <c r="S19">
-        <v>0.9518277803543831</v>
+        <v>2.136603209681079</v>
       </c>
       <c r="T19">
-        <v>0.964508143375356</v>
+        <v>2.031060218253518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.0008725682122105267</v>
+      </c>
+      <c r="D20">
+        <v>0.9317216662636841</v>
+      </c>
+      <c r="E20">
+        <v>0.0008725682122105267</v>
+      </c>
+      <c r="F20">
+        <v>2.926763954812632</v>
+      </c>
+      <c r="G20">
+        <v>0.03975178332047368</v>
+      </c>
+      <c r="H20">
+        <v>0.01703580641947368</v>
+      </c>
+      <c r="I20">
+        <v>2.926763954812632</v>
+      </c>
+      <c r="J20">
+        <v>1.012134918378947</v>
+      </c>
+      <c r="K20">
+        <v>2.926763954812632</v>
+      </c>
+      <c r="L20">
+        <v>0.9317216662636841</v>
+      </c>
+      <c r="M20">
+        <v>0.4662971172379473</v>
+      </c>
+      <c r="N20">
+        <v>0.4662971172379473</v>
+      </c>
+      <c r="O20">
+        <v>0.3241153392654561</v>
+      </c>
+      <c r="P20">
+        <v>1.286452729762842</v>
+      </c>
+      <c r="Q20">
+        <v>1.286452729762842</v>
+      </c>
+      <c r="R20">
+        <v>1.69653053602529</v>
+      </c>
+      <c r="S20">
+        <v>1.69653053602529</v>
+      </c>
+      <c r="T20">
+        <v>0.8213801162345703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>3.833118434014641</v>
+      </c>
+      <c r="D21">
+        <v>0.921639598403602</v>
+      </c>
+      <c r="E21">
+        <v>3.833118434014641</v>
+      </c>
+      <c r="F21">
+        <v>0.0008001724272154217</v>
+      </c>
+      <c r="G21">
+        <v>1.892633668346419</v>
+      </c>
+      <c r="H21">
+        <v>1.56754999196616</v>
+      </c>
+      <c r="I21">
+        <v>0.0008001724272154217</v>
+      </c>
+      <c r="J21">
+        <v>0.458924920822224</v>
+      </c>
+      <c r="K21">
+        <v>0.0008001724272154217</v>
+      </c>
+      <c r="L21">
+        <v>0.921639598403602</v>
+      </c>
+      <c r="M21">
+        <v>2.377379016209122</v>
+      </c>
+      <c r="N21">
+        <v>2.377379016209122</v>
+      </c>
+      <c r="O21">
+        <v>2.215797233588221</v>
+      </c>
+      <c r="P21">
+        <v>1.58518606828182</v>
+      </c>
+      <c r="Q21">
+        <v>1.58518606828182</v>
+      </c>
+      <c r="R21">
+        <v>1.189089594318169</v>
+      </c>
+      <c r="S21">
+        <v>1.189089594318169</v>
+      </c>
+      <c r="T21">
+        <v>1.445777797663377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.003550613755952988</v>
+      </c>
+      <c r="D22">
+        <v>1.254772966985912</v>
+      </c>
+      <c r="E22">
+        <v>0.003550613755952988</v>
+      </c>
+      <c r="F22">
+        <v>0.6591969602014227</v>
+      </c>
+      <c r="G22">
+        <v>1.037479104080533</v>
+      </c>
+      <c r="H22">
+        <v>0.0001804650347443722</v>
+      </c>
+      <c r="I22">
+        <v>0.6591969602014227</v>
+      </c>
+      <c r="J22">
+        <v>1.510632512469594</v>
+      </c>
+      <c r="K22">
+        <v>0.6591969602014227</v>
+      </c>
+      <c r="L22">
+        <v>1.254772966985912</v>
+      </c>
+      <c r="M22">
+        <v>0.6291617903709326</v>
+      </c>
+      <c r="N22">
+        <v>0.6291617903709326</v>
+      </c>
+      <c r="O22">
+        <v>0.765267561607466</v>
+      </c>
+      <c r="P22">
+        <v>0.6391735136477626</v>
+      </c>
+      <c r="Q22">
+        <v>0.6391735136477626</v>
+      </c>
+      <c r="R22">
+        <v>0.6441793752861777</v>
+      </c>
+      <c r="S22">
+        <v>0.6441793752861777</v>
+      </c>
+      <c r="T22">
+        <v>0.7443021037546932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.08295033050546884</v>
+      </c>
+      <c r="D23">
+        <v>1.872201884411598</v>
+      </c>
+      <c r="E23">
+        <v>0.08295033050546884</v>
+      </c>
+      <c r="F23">
+        <v>1.291663990849878</v>
+      </c>
+      <c r="G23">
+        <v>1.204496121253931</v>
+      </c>
+      <c r="H23">
+        <v>0.05449475739745575</v>
+      </c>
+      <c r="I23">
+        <v>1.291663990849878</v>
+      </c>
+      <c r="J23">
+        <v>0.8970324175091774</v>
+      </c>
+      <c r="K23">
+        <v>1.291663990849878</v>
+      </c>
+      <c r="L23">
+        <v>1.872201884411598</v>
+      </c>
+      <c r="M23">
+        <v>0.9775761074585336</v>
+      </c>
+      <c r="N23">
+        <v>0.9775761074585336</v>
+      </c>
+      <c r="O23">
+        <v>1.053216112056999</v>
+      </c>
+      <c r="P23">
+        <v>1.082272068588982</v>
+      </c>
+      <c r="Q23">
+        <v>1.082272068588982</v>
+      </c>
+      <c r="R23">
+        <v>1.134620049154206</v>
+      </c>
+      <c r="S23">
+        <v>1.134620049154206</v>
+      </c>
+      <c r="T23">
+        <v>0.9004732503212516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.985364889919626</v>
+      </c>
+      <c r="D24">
+        <v>0.4352659370741574</v>
+      </c>
+      <c r="E24">
+        <v>1.985364889919626</v>
+      </c>
+      <c r="F24">
+        <v>0.8209179269146976</v>
+      </c>
+      <c r="G24">
+        <v>0.5522788786390546</v>
+      </c>
+      <c r="H24">
+        <v>2.18003985223065</v>
+      </c>
+      <c r="I24">
+        <v>0.8209179269146976</v>
+      </c>
+      <c r="J24">
+        <v>0.6965456643618477</v>
+      </c>
+      <c r="K24">
+        <v>0.8209179269146976</v>
+      </c>
+      <c r="L24">
+        <v>0.4352659370741574</v>
+      </c>
+      <c r="M24">
+        <v>1.210315413496892</v>
+      </c>
+      <c r="N24">
+        <v>1.210315413496892</v>
+      </c>
+      <c r="O24">
+        <v>0.9909699018776128</v>
+      </c>
+      <c r="P24">
+        <v>1.080516251302827</v>
+      </c>
+      <c r="Q24">
+        <v>1.080516251302827</v>
+      </c>
+      <c r="R24">
+        <v>1.015616670205795</v>
+      </c>
+      <c r="S24">
+        <v>1.015616670205795</v>
+      </c>
+      <c r="T24">
+        <v>1.111735524856672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.0004517490931424619</v>
+      </c>
+      <c r="D25">
+        <v>0.2932338955965229</v>
+      </c>
+      <c r="E25">
+        <v>0.0004517490931424619</v>
+      </c>
+      <c r="F25">
+        <v>4.059502366694058</v>
+      </c>
+      <c r="G25">
+        <v>0.03457783773595675</v>
+      </c>
+      <c r="H25">
+        <v>0.03913132322509325</v>
+      </c>
+      <c r="I25">
+        <v>4.059502366694058</v>
+      </c>
+      <c r="J25">
+        <v>1.631988805127331</v>
+      </c>
+      <c r="K25">
+        <v>4.059502366694058</v>
+      </c>
+      <c r="L25">
+        <v>0.2932338955965229</v>
+      </c>
+      <c r="M25">
+        <v>0.1468428223448327</v>
+      </c>
+      <c r="N25">
+        <v>0.1468428223448327</v>
+      </c>
+      <c r="O25">
+        <v>0.1094211608085407</v>
+      </c>
+      <c r="P25">
+        <v>1.451062670461241</v>
+      </c>
+      <c r="Q25">
+        <v>1.451062670461241</v>
+      </c>
+      <c r="R25">
+        <v>2.103172594519445</v>
+      </c>
+      <c r="S25">
+        <v>2.103172594519445</v>
+      </c>
+      <c r="T25">
+        <v>1.009814329578684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.00245131764770265</v>
+      </c>
+      <c r="D26">
+        <v>1.602135289468239</v>
+      </c>
+      <c r="E26">
+        <v>0.00245131764770265</v>
+      </c>
+      <c r="F26">
+        <v>0.004873573245293489</v>
+      </c>
+      <c r="G26">
+        <v>1.410159995498077</v>
+      </c>
+      <c r="H26">
+        <v>2.729660321940111</v>
+      </c>
+      <c r="I26">
+        <v>0.004873573245293489</v>
+      </c>
+      <c r="J26">
+        <v>1.172020355314177</v>
+      </c>
+      <c r="K26">
+        <v>0.004873573245293489</v>
+      </c>
+      <c r="L26">
+        <v>1.602135289468239</v>
+      </c>
+      <c r="M26">
+        <v>0.8022933035579709</v>
+      </c>
+      <c r="N26">
+        <v>0.8022933035579709</v>
+      </c>
+      <c r="O26">
+        <v>1.004915534204673</v>
+      </c>
+      <c r="P26">
+        <v>0.5364867267870784</v>
+      </c>
+      <c r="Q26">
+        <v>0.5364867267870784</v>
+      </c>
+      <c r="R26">
+        <v>0.4035834384016322</v>
+      </c>
+      <c r="S26">
+        <v>0.4035834384016322</v>
+      </c>
+      <c r="T26">
+        <v>1.1535501421856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>6.663863739564073</v>
+      </c>
+      <c r="D27">
+        <v>0.2058746234777468</v>
+      </c>
+      <c r="E27">
+        <v>6.663863739564073</v>
+      </c>
+      <c r="F27">
+        <v>1.323114401080302</v>
+      </c>
+      <c r="G27">
+        <v>0.02843281412943852</v>
+      </c>
+      <c r="H27">
+        <v>2.692872540875087</v>
+      </c>
+      <c r="I27">
+        <v>1.323114401080302</v>
+      </c>
+      <c r="J27">
+        <v>1.133837875297343</v>
+      </c>
+      <c r="K27">
+        <v>1.323114401080302</v>
+      </c>
+      <c r="L27">
+        <v>0.2058746234777468</v>
+      </c>
+      <c r="M27">
+        <v>3.43486918152091</v>
+      </c>
+      <c r="N27">
+        <v>3.43486918152091</v>
+      </c>
+      <c r="O27">
+        <v>2.299390392390419</v>
+      </c>
+      <c r="P27">
+        <v>2.730950921374041</v>
+      </c>
+      <c r="Q27">
+        <v>2.730950921374041</v>
+      </c>
+      <c r="R27">
+        <v>2.378991791300606</v>
+      </c>
+      <c r="S27">
+        <v>2.378991791300606</v>
+      </c>
+      <c r="T27">
+        <v>2.007999332403998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.02788928711331032</v>
+      </c>
+      <c r="D28">
+        <v>1.486277097480223</v>
+      </c>
+      <c r="E28">
+        <v>0.02788928711331032</v>
+      </c>
+      <c r="F28">
+        <v>1.551507695479941</v>
+      </c>
+      <c r="G28">
+        <v>1.451941457273295</v>
+      </c>
+      <c r="H28">
+        <v>0.1049444717287964</v>
+      </c>
+      <c r="I28">
+        <v>1.551507695479941</v>
+      </c>
+      <c r="J28">
+        <v>0.5813774571343391</v>
+      </c>
+      <c r="K28">
+        <v>1.551507695479941</v>
+      </c>
+      <c r="L28">
+        <v>1.486277097480223</v>
+      </c>
+      <c r="M28">
+        <v>0.7570831922967668</v>
+      </c>
+      <c r="N28">
+        <v>0.7570831922967668</v>
+      </c>
+      <c r="O28">
+        <v>0.9887026139556094</v>
+      </c>
+      <c r="P28">
+        <v>1.021891360024491</v>
+      </c>
+      <c r="Q28">
+        <v>1.021891360024491</v>
+      </c>
+      <c r="R28">
+        <v>1.154295443888354</v>
+      </c>
+      <c r="S28">
+        <v>1.154295443888354</v>
+      </c>
+      <c r="T28">
+        <v>0.867322911034984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.01970346954303585</v>
+      </c>
+      <c r="D29">
+        <v>0.8054893350266741</v>
+      </c>
+      <c r="E29">
+        <v>0.01970346954303585</v>
+      </c>
+      <c r="F29">
+        <v>1.126097691985408</v>
+      </c>
+      <c r="G29">
+        <v>1.109776950020645</v>
+      </c>
+      <c r="H29">
+        <v>0.1283406145197177</v>
+      </c>
+      <c r="I29">
+        <v>1.126097691985408</v>
+      </c>
+      <c r="J29">
+        <v>0.3372859637426674</v>
+      </c>
+      <c r="K29">
+        <v>1.126097691985408</v>
+      </c>
+      <c r="L29">
+        <v>0.8054893350266741</v>
+      </c>
+      <c r="M29">
+        <v>0.4125964022848549</v>
+      </c>
+      <c r="N29">
+        <v>0.4125964022848549</v>
+      </c>
+      <c r="O29">
+        <v>0.644989918196785</v>
+      </c>
+      <c r="P29">
+        <v>0.6504301655183727</v>
+      </c>
+      <c r="Q29">
+        <v>0.6504301655183727</v>
+      </c>
+      <c r="R29">
+        <v>0.7693470471351317</v>
+      </c>
+      <c r="S29">
+        <v>0.7693470471351317</v>
+      </c>
+      <c r="T29">
+        <v>0.5877823374730248</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8462768398025659</v>
+        <v>0.9500797573879963</v>
       </c>
       <c r="D4">
-        <v>1.045692379239668</v>
+        <v>1.072503193431017</v>
       </c>
       <c r="E4">
-        <v>0.8462768398025659</v>
+        <v>0.9500797573879963</v>
       </c>
       <c r="F4">
-        <v>0.9131631911514038</v>
+        <v>0.8274010876568421</v>
       </c>
       <c r="G4">
-        <v>0.804399414869023</v>
+        <v>0.9972048299305319</v>
       </c>
       <c r="H4">
-        <v>1.669499548348724</v>
+        <v>0.8627053575300154</v>
       </c>
       <c r="I4">
-        <v>0.9131631911514038</v>
+        <v>0.8274010876568421</v>
       </c>
       <c r="J4">
-        <v>0.995501508644803</v>
+        <v>0.94236009999308</v>
       </c>
       <c r="K4">
-        <v>0.9131631911514038</v>
+        <v>0.8274010876568421</v>
       </c>
       <c r="L4">
-        <v>1.045692379239668</v>
+        <v>1.072503193431017</v>
       </c>
       <c r="M4">
-        <v>0.9459846095211166</v>
+        <v>1.011291475409507</v>
       </c>
       <c r="N4">
-        <v>0.9459846095211166</v>
+        <v>1.011291475409507</v>
       </c>
       <c r="O4">
-        <v>0.8987895446370855</v>
+        <v>1.006595926916515</v>
       </c>
       <c r="P4">
-        <v>0.9350441367312122</v>
+        <v>0.9499946794919518</v>
       </c>
       <c r="Q4">
-        <v>0.9350441367312124</v>
+        <v>0.9499946794919518</v>
       </c>
       <c r="R4">
-        <v>0.9295739003362602</v>
+        <v>0.9193462815331743</v>
       </c>
       <c r="S4">
-        <v>0.9295739003362602</v>
+        <v>0.9193462815331743</v>
       </c>
       <c r="T4">
-        <v>1.045755480342698</v>
+        <v>0.9420423876549138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8892196025425446</v>
+        <v>0.0004942304288528212</v>
       </c>
       <c r="D5">
-        <v>1.077148032208467</v>
+        <v>0.9679335969119237</v>
       </c>
       <c r="E5">
-        <v>0.8892196025425446</v>
+        <v>0.0004942304288528212</v>
       </c>
       <c r="F5">
-        <v>0.8991658244535062</v>
+        <v>2.483807575787273</v>
       </c>
       <c r="G5">
-        <v>0.9731119226213246</v>
+        <v>0.04157513857318437</v>
       </c>
       <c r="H5">
-        <v>0.8108834139927934</v>
+        <v>0.0193494468378725</v>
       </c>
       <c r="I5">
-        <v>0.8991658244535062</v>
+        <v>2.483807575787273</v>
       </c>
       <c r="J5">
-        <v>0.9028288198253097</v>
+        <v>1.11296946900658</v>
       </c>
       <c r="K5">
-        <v>0.8991658244535062</v>
+        <v>2.483807575787273</v>
       </c>
       <c r="L5">
-        <v>1.077148032208467</v>
+        <v>0.9679335969119237</v>
       </c>
       <c r="M5">
-        <v>0.9831838173755061</v>
+        <v>0.4842139136703882</v>
       </c>
       <c r="N5">
-        <v>0.9831838173755061</v>
+        <v>0.4842139136703882</v>
       </c>
       <c r="O5">
-        <v>0.9798265191241122</v>
+        <v>0.3366676553046536</v>
       </c>
       <c r="P5">
-        <v>0.9551778197348395</v>
+        <v>1.150745134376016</v>
       </c>
       <c r="Q5">
-        <v>0.9551778197348394</v>
+        <v>1.150745134376016</v>
       </c>
       <c r="R5">
-        <v>0.9411748209145061</v>
+        <v>1.48401074472883</v>
       </c>
       <c r="S5">
-        <v>0.9411748209145061</v>
+        <v>1.48401074472883</v>
       </c>
       <c r="T5">
-        <v>0.9253929359406575</v>
+        <v>0.7710215762576144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4788722864298926</v>
+        <v>0.8462768398025659</v>
       </c>
       <c r="D6">
-        <v>0.9955997298227246</v>
+        <v>1.045692379239668</v>
       </c>
       <c r="E6">
-        <v>0.4788722864298926</v>
+        <v>0.8462768398025659</v>
       </c>
       <c r="F6">
-        <v>0.4202201587971552</v>
+        <v>0.9131631911514038</v>
       </c>
       <c r="G6">
-        <v>0.4950930687682939</v>
+        <v>0.804399414869023</v>
       </c>
       <c r="H6">
-        <v>0.431962475498656</v>
+        <v>1.669499548348724</v>
       </c>
       <c r="I6">
-        <v>0.4202201587971552</v>
+        <v>0.9131631911514038</v>
       </c>
       <c r="J6">
-        <v>0.4858461659213149</v>
+        <v>0.995501508644803</v>
       </c>
       <c r="K6">
-        <v>0.4202201587971552</v>
+        <v>0.9131631911514038</v>
       </c>
       <c r="L6">
-        <v>0.9955997298227246</v>
+        <v>1.045692379239668</v>
       </c>
       <c r="M6">
-        <v>0.7372360081263086</v>
+        <v>0.9459846095211166</v>
       </c>
       <c r="N6">
-        <v>0.7372360081263086</v>
+        <v>0.9459846095211166</v>
       </c>
       <c r="O6">
-        <v>0.6565216950069704</v>
+        <v>0.8987895446370855</v>
       </c>
       <c r="P6">
-        <v>0.6315640583499241</v>
+        <v>0.9350441367312122</v>
       </c>
       <c r="Q6">
-        <v>0.6315640583499241</v>
+        <v>0.9350441367312124</v>
       </c>
       <c r="R6">
-        <v>0.5787280834617319</v>
+        <v>0.9295739003362602</v>
       </c>
       <c r="S6">
-        <v>0.5787280834617319</v>
+        <v>0.9295739003362602</v>
       </c>
       <c r="T6">
-        <v>0.5512656475396729</v>
+        <v>1.045755480342698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9546101430249853</v>
+        <v>0.8892196025425446</v>
       </c>
       <c r="D7">
-        <v>1.026579975002694</v>
+        <v>1.077148032208467</v>
       </c>
       <c r="E7">
-        <v>0.9546101430249853</v>
+        <v>0.8892196025425446</v>
       </c>
       <c r="F7">
-        <v>1.027142179393608</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="G7">
-        <v>1.034257983086298</v>
+        <v>0.9731119226213246</v>
       </c>
       <c r="H7">
-        <v>0.9533605094713952</v>
+        <v>0.8108834139927934</v>
       </c>
       <c r="I7">
-        <v>1.027142179393608</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="J7">
-        <v>0.9665965497835024</v>
+        <v>0.9028288198253097</v>
       </c>
       <c r="K7">
-        <v>1.027142179393608</v>
+        <v>0.8991658244535062</v>
       </c>
       <c r="L7">
-        <v>1.026579975002694</v>
+        <v>1.077148032208467</v>
       </c>
       <c r="M7">
-        <v>0.9905950590138395</v>
+        <v>0.9831838173755061</v>
       </c>
       <c r="N7">
-        <v>0.9905950590138395</v>
+        <v>0.9831838173755061</v>
       </c>
       <c r="O7">
-        <v>1.005149367037992</v>
+        <v>0.9798265191241122</v>
       </c>
       <c r="P7">
-        <v>1.002777432473762</v>
+        <v>0.9551778197348395</v>
       </c>
       <c r="Q7">
-        <v>1.002777432473762</v>
+        <v>0.9551778197348394</v>
       </c>
       <c r="R7">
-        <v>1.008868619203724</v>
+        <v>0.9411748209145061</v>
       </c>
       <c r="S7">
-        <v>1.008868619203724</v>
+        <v>0.9411748209145061</v>
       </c>
       <c r="T7">
-        <v>0.9937578899604137</v>
+        <v>0.9253929359406575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9985944281972277</v>
+        <v>0.4788722864298926</v>
       </c>
       <c r="D8">
-        <v>1.020495749522984</v>
+        <v>0.9955997298227246</v>
       </c>
       <c r="E8">
-        <v>0.9985944281972277</v>
+        <v>0.4788722864298926</v>
       </c>
       <c r="F8">
-        <v>1.017273676556432</v>
+        <v>0.4202201587971552</v>
       </c>
       <c r="G8">
-        <v>1.010453890867827</v>
+        <v>0.4950930687682939</v>
       </c>
       <c r="H8">
-        <v>1.000376861317628</v>
+        <v>0.431962475498656</v>
       </c>
       <c r="I8">
-        <v>1.017273676556432</v>
+        <v>0.4202201587971552</v>
       </c>
       <c r="J8">
-        <v>0.995616987238511</v>
+        <v>0.4858461659213149</v>
       </c>
       <c r="K8">
-        <v>1.017273676556432</v>
+        <v>0.4202201587971552</v>
       </c>
       <c r="L8">
-        <v>1.020495749522984</v>
+        <v>0.9955997298227246</v>
       </c>
       <c r="M8">
-        <v>1.009545088860106</v>
+        <v>0.7372360081263086</v>
       </c>
       <c r="N8">
-        <v>1.009545088860106</v>
+        <v>0.7372360081263086</v>
       </c>
       <c r="O8">
-        <v>1.00984802286268</v>
+        <v>0.6565216950069704</v>
       </c>
       <c r="P8">
-        <v>1.012121284758881</v>
+        <v>0.6315640583499241</v>
       </c>
       <c r="Q8">
-        <v>1.012121284758881</v>
+        <v>0.6315640583499241</v>
       </c>
       <c r="R8">
-        <v>1.013409382708269</v>
+        <v>0.5787280834617319</v>
       </c>
       <c r="S8">
-        <v>1.013409382708269</v>
+        <v>0.5787280834617319</v>
       </c>
       <c r="T8">
-        <v>1.007135265616768</v>
+        <v>0.5512656475396729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8636529284385208</v>
+        <v>0.9546101430249853</v>
       </c>
       <c r="D9">
-        <v>1.049840317304674</v>
+        <v>1.026579975002694</v>
       </c>
       <c r="E9">
-        <v>0.8636529284385208</v>
+        <v>0.9546101430249853</v>
       </c>
       <c r="F9">
-        <v>1.093229033325613</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="G9">
-        <v>1.111664845330716</v>
+        <v>1.034257983086298</v>
       </c>
       <c r="H9">
-        <v>0.9226603018680085</v>
+        <v>0.9533605094713952</v>
       </c>
       <c r="I9">
-        <v>1.093229033325613</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="J9">
-        <v>0.9457823457905921</v>
+        <v>0.9665965497835024</v>
       </c>
       <c r="K9">
-        <v>1.093229033325613</v>
+        <v>1.027142179393608</v>
       </c>
       <c r="L9">
-        <v>1.049840317304674</v>
+        <v>1.026579975002694</v>
       </c>
       <c r="M9">
-        <v>0.9567466228715973</v>
+        <v>0.9905950590138395</v>
       </c>
       <c r="N9">
-        <v>0.9567466228715973</v>
+        <v>0.9905950590138395</v>
       </c>
       <c r="O9">
-        <v>1.00838603035797</v>
+        <v>1.005149367037992</v>
       </c>
       <c r="P9">
-        <v>1.002240759689603</v>
+        <v>1.002777432473762</v>
       </c>
       <c r="Q9">
-        <v>1.002240759689603</v>
+        <v>1.002777432473762</v>
       </c>
       <c r="R9">
-        <v>1.024987828098605</v>
+        <v>1.008868619203724</v>
       </c>
       <c r="S9">
-        <v>1.024987828098605</v>
+        <v>1.008868619203724</v>
       </c>
       <c r="T9">
-        <v>0.9978049620096874</v>
+        <v>0.9937578899604137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3820115951400729</v>
+        <v>0.9985944281972277</v>
       </c>
       <c r="D10">
-        <v>1.030192458239591</v>
+        <v>1.020495749522984</v>
       </c>
       <c r="E10">
-        <v>0.3820115951400729</v>
+        <v>0.9985944281972277</v>
       </c>
       <c r="F10">
-        <v>0.3527659036907021</v>
+        <v>1.017273676556432</v>
       </c>
       <c r="G10">
-        <v>0.491650349547914</v>
+        <v>1.010453890867827</v>
       </c>
       <c r="H10">
-        <v>0.4187626778921151</v>
+        <v>1.000376861317628</v>
       </c>
       <c r="I10">
-        <v>0.3527659036907021</v>
+        <v>1.017273676556432</v>
       </c>
       <c r="J10">
-        <v>0.4884087250354469</v>
+        <v>0.995616987238511</v>
       </c>
       <c r="K10">
-        <v>0.3527659036907021</v>
+        <v>1.017273676556432</v>
       </c>
       <c r="L10">
-        <v>1.030192458239591</v>
+        <v>1.020495749522984</v>
       </c>
       <c r="M10">
-        <v>0.7061020266898318</v>
+        <v>1.009545088860106</v>
       </c>
       <c r="N10">
-        <v>0.7061020266898318</v>
+        <v>1.009545088860106</v>
       </c>
       <c r="O10">
-        <v>0.6346181343091924</v>
+        <v>1.00984802286268</v>
       </c>
       <c r="P10">
-        <v>0.5883233190234552</v>
+        <v>1.012121284758881</v>
       </c>
       <c r="Q10">
-        <v>0.5883233190234552</v>
+        <v>1.012121284758881</v>
       </c>
       <c r="R10">
-        <v>0.529433965190267</v>
+        <v>1.013409382708269</v>
       </c>
       <c r="S10">
-        <v>0.529433965190267</v>
+        <v>1.013409382708269</v>
       </c>
       <c r="T10">
-        <v>0.5272986182576402</v>
+        <v>1.007135265616768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7984864750944711</v>
+        <v>0.8636529284385208</v>
       </c>
       <c r="D11">
-        <v>1.087403060710253</v>
+        <v>1.049840317304674</v>
       </c>
       <c r="E11">
-        <v>0.7984864750944711</v>
+        <v>0.8636529284385208</v>
       </c>
       <c r="F11">
-        <v>0.8514773253090631</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="G11">
-        <v>0.8429718431222548</v>
+        <v>1.111664845330716</v>
       </c>
       <c r="H11">
-        <v>1.236521685894548</v>
+        <v>0.9226603018680085</v>
       </c>
       <c r="I11">
-        <v>0.8514773253090631</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="J11">
-        <v>1.039810134272311</v>
+        <v>0.9457823457905921</v>
       </c>
       <c r="K11">
-        <v>0.8514773253090631</v>
+        <v>1.093229033325613</v>
       </c>
       <c r="L11">
-        <v>1.087403060710253</v>
+        <v>1.049840317304674</v>
       </c>
       <c r="M11">
-        <v>0.9429447679023621</v>
+        <v>0.9567466228715973</v>
       </c>
       <c r="N11">
-        <v>0.9429447679023621</v>
+        <v>0.9567466228715973</v>
       </c>
       <c r="O11">
-        <v>0.9096204596423263</v>
+        <v>1.00838603035797</v>
       </c>
       <c r="P11">
-        <v>0.9124556203712624</v>
+        <v>1.002240759689603</v>
       </c>
       <c r="Q11">
-        <v>0.9124556203712624</v>
+        <v>1.002240759689603</v>
       </c>
       <c r="R11">
-        <v>0.8972110466057126</v>
+        <v>1.024987828098605</v>
       </c>
       <c r="S11">
-        <v>0.8972110466057126</v>
+        <v>1.024987828098605</v>
       </c>
       <c r="T11">
-        <v>0.9761117540671501</v>
+        <v>0.9978049620096874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.69409957913576</v>
+        <v>0.3820115951400729</v>
       </c>
       <c r="D12">
-        <v>1.130243725001811</v>
+        <v>1.030192458239591</v>
       </c>
       <c r="E12">
-        <v>0.69409957913576</v>
+        <v>0.3820115951400729</v>
       </c>
       <c r="F12">
-        <v>0.7092600730919045</v>
+        <v>0.3527659036907021</v>
       </c>
       <c r="G12">
-        <v>0.9121636849064783</v>
+        <v>0.491650349547914</v>
       </c>
       <c r="H12">
-        <v>0.8789030699550131</v>
+        <v>0.4187626778921151</v>
       </c>
       <c r="I12">
-        <v>0.7092600730919045</v>
+        <v>0.3527659036907021</v>
       </c>
       <c r="J12">
-        <v>0.8959895344754114</v>
+        <v>0.4884087250354469</v>
       </c>
       <c r="K12">
-        <v>0.7092600730919045</v>
+        <v>0.3527659036907021</v>
       </c>
       <c r="L12">
-        <v>1.130243725001811</v>
+        <v>1.030192458239591</v>
       </c>
       <c r="M12">
-        <v>0.9121716520687857</v>
+        <v>0.7061020266898318</v>
       </c>
       <c r="N12">
-        <v>0.9121716520687857</v>
+        <v>0.7061020266898318</v>
       </c>
       <c r="O12">
-        <v>0.9121689963480165</v>
+        <v>0.6346181343091924</v>
       </c>
       <c r="P12">
-        <v>0.8445344590764919</v>
+        <v>0.5883233190234552</v>
       </c>
       <c r="Q12">
-        <v>0.8445344590764919</v>
+        <v>0.5883233190234552</v>
       </c>
       <c r="R12">
-        <v>0.8107158625803451</v>
+        <v>0.529433965190267</v>
       </c>
       <c r="S12">
-        <v>0.8107158625803451</v>
+        <v>0.529433965190267</v>
       </c>
       <c r="T12">
-        <v>0.8701099444277297</v>
+        <v>0.5272986182576402</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6668610961117181</v>
+        <v>0.7984864750944711</v>
       </c>
       <c r="D13">
-        <v>1.069491535443396</v>
+        <v>1.087403060710253</v>
       </c>
       <c r="E13">
-        <v>0.6668610961117181</v>
+        <v>0.7984864750944711</v>
       </c>
       <c r="F13">
-        <v>0.8090263037188058</v>
+        <v>0.8514773253090631</v>
       </c>
       <c r="G13">
-        <v>0.9696878497980904</v>
+        <v>0.8429718431222548</v>
       </c>
       <c r="H13">
-        <v>1.07653024514256</v>
+        <v>1.236521685894548</v>
       </c>
       <c r="I13">
-        <v>0.8090263037188058</v>
+        <v>0.8514773253090631</v>
       </c>
       <c r="J13">
-        <v>1.052221191652125</v>
+        <v>1.039810134272311</v>
       </c>
       <c r="K13">
-        <v>0.8090263037188058</v>
+        <v>0.8514773253090631</v>
       </c>
       <c r="L13">
-        <v>1.069491535443396</v>
+        <v>1.087403060710253</v>
       </c>
       <c r="M13">
-        <v>0.8681763157775572</v>
+        <v>0.9429447679023621</v>
       </c>
       <c r="N13">
-        <v>0.8681763157775572</v>
+        <v>0.9429447679023621</v>
       </c>
       <c r="O13">
-        <v>0.9020134937844015</v>
+        <v>0.9096204596423263</v>
       </c>
       <c r="P13">
-        <v>0.8484596450913067</v>
+        <v>0.9124556203712624</v>
       </c>
       <c r="Q13">
-        <v>0.8484596450913067</v>
+        <v>0.9124556203712624</v>
       </c>
       <c r="R13">
-        <v>0.8386013097481815</v>
+        <v>0.8972110466057126</v>
       </c>
       <c r="S13">
-        <v>0.8386013097481815</v>
+        <v>0.8972110466057126</v>
       </c>
       <c r="T13">
-        <v>0.9406363703111159</v>
+        <v>0.9761117540671501</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.002693453900000002</v>
+        <v>0.69409957913576</v>
       </c>
       <c r="D14">
-        <v>0.9377522300000005</v>
+        <v>1.130243725001811</v>
       </c>
       <c r="E14">
-        <v>0.002693453900000002</v>
+        <v>0.69409957913576</v>
       </c>
       <c r="F14">
-        <v>0.001389646800000002</v>
+        <v>0.7092600730919045</v>
       </c>
       <c r="G14">
-        <v>0.01334174799999999</v>
+        <v>0.9121636849064783</v>
       </c>
       <c r="H14">
-        <v>-0.007031168899999998</v>
+        <v>0.8789030699550131</v>
       </c>
       <c r="I14">
-        <v>0.001389646800000002</v>
+        <v>0.7092600730919045</v>
       </c>
       <c r="J14">
-        <v>0.02770257600000002</v>
+        <v>0.8959895344754114</v>
       </c>
       <c r="K14">
-        <v>0.001389646800000002</v>
+        <v>0.7092600730919045</v>
       </c>
       <c r="L14">
-        <v>0.9377522300000005</v>
+        <v>1.130243725001811</v>
       </c>
       <c r="M14">
-        <v>0.4702228419500002</v>
+        <v>0.9121716520687857</v>
       </c>
       <c r="N14">
-        <v>0.4702228419500002</v>
+        <v>0.9121716520687857</v>
       </c>
       <c r="O14">
-        <v>0.3179291439666668</v>
+        <v>0.9121689963480165</v>
       </c>
       <c r="P14">
-        <v>0.3139451102333335</v>
+        <v>0.8445344590764919</v>
       </c>
       <c r="Q14">
-        <v>0.3139451102333335</v>
+        <v>0.8445344590764919</v>
       </c>
       <c r="R14">
-        <v>0.2358062443750001</v>
+        <v>0.8107158625803451</v>
       </c>
       <c r="S14">
-        <v>0.2358062443750001</v>
+        <v>0.8107158625803451</v>
       </c>
       <c r="T14">
-        <v>0.1626414143000001</v>
+        <v>0.8701099444277297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0030969418</v>
+        <v>0.6668610961117181</v>
       </c>
       <c r="D15">
-        <v>-0.0012295708</v>
+        <v>1.069491535443396</v>
       </c>
       <c r="E15">
-        <v>0.0030969418</v>
+        <v>0.6668610961117181</v>
       </c>
       <c r="F15">
-        <v>30.381976</v>
+        <v>0.8090263037188058</v>
       </c>
       <c r="G15">
-        <v>0.0025420957</v>
+        <v>0.9696878497980904</v>
       </c>
       <c r="H15">
-        <v>-0.0027921709</v>
+        <v>1.07653024514256</v>
       </c>
       <c r="I15">
-        <v>30.381976</v>
+        <v>0.8090263037188058</v>
       </c>
       <c r="J15">
-        <v>0.0037430372</v>
+        <v>1.052221191652125</v>
       </c>
       <c r="K15">
-        <v>30.381976</v>
+        <v>0.8090263037188058</v>
       </c>
       <c r="L15">
-        <v>-0.0012295708</v>
+        <v>1.069491535443396</v>
       </c>
       <c r="M15">
-        <v>0.0009336855</v>
+        <v>0.8681763157775572</v>
       </c>
       <c r="N15">
-        <v>0.0009336855</v>
+        <v>0.8681763157775572</v>
       </c>
       <c r="O15">
-        <v>0.001469822233333333</v>
+        <v>0.9020134937844015</v>
       </c>
       <c r="P15">
-        <v>10.12794779033333</v>
+        <v>0.8484596450913067</v>
       </c>
       <c r="Q15">
-        <v>10.12794779033333</v>
+        <v>0.8484596450913067</v>
       </c>
       <c r="R15">
-        <v>15.19145484275</v>
+        <v>0.8386013097481815</v>
       </c>
       <c r="S15">
-        <v>15.19145484275</v>
+        <v>0.8386013097481815</v>
       </c>
       <c r="T15">
-        <v>5.0645560555</v>
+        <v>0.9406363703111159</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0087628992</v>
+        <v>0.002693453900000002</v>
       </c>
       <c r="D16">
-        <v>0.012049533</v>
+        <v>0.9377522300000005</v>
       </c>
       <c r="E16">
-        <v>-0.0087628992</v>
+        <v>0.002693453900000002</v>
       </c>
       <c r="F16">
-        <v>0.0057597681</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="G16">
-        <v>-0.003035489</v>
+        <v>0.01334174799999999</v>
       </c>
       <c r="H16">
-        <v>2.8160469</v>
+        <v>-0.007031168899999998</v>
       </c>
       <c r="I16">
-        <v>0.0057597681</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="J16">
-        <v>0.046195357</v>
+        <v>0.02770257600000002</v>
       </c>
       <c r="K16">
-        <v>0.0057597681</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="L16">
-        <v>0.012049533</v>
+        <v>0.9377522300000005</v>
       </c>
       <c r="M16">
-        <v>0.0016433169</v>
+        <v>0.4702228419500002</v>
       </c>
       <c r="N16">
-        <v>0.0016433169</v>
+        <v>0.4702228419500002</v>
       </c>
       <c r="O16">
-        <v>8.3714933333333E-05</v>
+        <v>0.3179291439666668</v>
       </c>
       <c r="P16">
-        <v>0.0030154673</v>
+        <v>0.3139451102333335</v>
       </c>
       <c r="Q16">
-        <v>0.0030154673</v>
+        <v>0.3139451102333335</v>
       </c>
       <c r="R16">
-        <v>0.0037015425</v>
+        <v>0.2358062443750001</v>
       </c>
       <c r="S16">
-        <v>0.0037015425</v>
+        <v>0.2358062443750001</v>
       </c>
       <c r="T16">
-        <v>0.4780421949833333</v>
+        <v>0.1626414143000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.0014474625</v>
+        <v>0.0030969418</v>
       </c>
       <c r="D17">
-        <v>7.5423838</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="E17">
-        <v>-0.0014474625</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F17">
-        <v>8.116031700000001</v>
+        <v>30.381976</v>
       </c>
       <c r="G17">
-        <v>0.00089266024</v>
+        <v>0.0025420957</v>
       </c>
       <c r="H17">
-        <v>0.0025346516</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="I17">
-        <v>8.116031700000001</v>
+        <v>30.381976</v>
       </c>
       <c r="J17">
-        <v>0.28993023</v>
+        <v>0.0037430372</v>
       </c>
       <c r="K17">
-        <v>8.116031700000001</v>
+        <v>30.381976</v>
       </c>
       <c r="L17">
-        <v>7.5423838</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M17">
-        <v>3.77046816875</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N17">
-        <v>3.77046816875</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O17">
-        <v>2.513942999246666</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P17">
-        <v>5.218989345833333</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q17">
-        <v>5.218989345833333</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R17">
-        <v>5.943249934375</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S17">
-        <v>5.943249934375</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T17">
-        <v>2.658387596556667</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.002334096784657535</v>
+        <v>-0.0087628992</v>
       </c>
       <c r="D18">
-        <v>1.779105482482192</v>
+        <v>0.012049533</v>
       </c>
       <c r="E18">
-        <v>0.002334096784657535</v>
+        <v>-0.0087628992</v>
       </c>
       <c r="F18">
-        <v>2.189918670126576</v>
+        <v>0.0057597681</v>
       </c>
       <c r="G18">
-        <v>1.835215493405754</v>
+        <v>-0.003035489</v>
       </c>
       <c r="H18">
-        <v>0.165656541609589</v>
+        <v>2.8160469</v>
       </c>
       <c r="I18">
-        <v>2.189918670126576</v>
+        <v>0.0057597681</v>
       </c>
       <c r="J18">
-        <v>0.2461711349581369</v>
+        <v>0.046195357</v>
       </c>
       <c r="K18">
-        <v>2.189918670126576</v>
+        <v>0.0057597681</v>
       </c>
       <c r="L18">
-        <v>1.779105482482192</v>
+        <v>0.012049533</v>
       </c>
       <c r="M18">
-        <v>0.8907197896334249</v>
+        <v>0.0016433169</v>
       </c>
       <c r="N18">
-        <v>0.8907197896334249</v>
+        <v>0.0016433169</v>
       </c>
       <c r="O18">
-        <v>1.205551690890868</v>
+        <v>8.3714933333333E-05</v>
       </c>
       <c r="P18">
-        <v>1.323786083131142</v>
+        <v>0.0030154673</v>
       </c>
       <c r="Q18">
-        <v>1.323786083131142</v>
+        <v>0.0030154673</v>
       </c>
       <c r="R18">
-        <v>1.54031922988</v>
+        <v>0.0037015425</v>
       </c>
       <c r="S18">
-        <v>1.54031922988</v>
+        <v>0.0037015425</v>
       </c>
       <c r="T18">
-        <v>1.036400236561151</v>
+        <v>0.4780421949833333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.406779577163157</v>
+        <v>-0.0014474625</v>
       </c>
       <c r="D19">
-        <v>1.730264594942105</v>
+        <v>7.5423838</v>
       </c>
       <c r="E19">
-        <v>3.406779577163157</v>
+        <v>-0.0014474625</v>
       </c>
       <c r="F19">
-        <v>1.704684333309526</v>
+        <v>8.116031700000001</v>
       </c>
       <c r="G19">
-        <v>0.03230686262736841</v>
+        <v>0.00089266024</v>
       </c>
       <c r="H19">
-        <v>5.183445915668421</v>
+        <v>0.0025346516</v>
       </c>
       <c r="I19">
-        <v>1.704684333309526</v>
+        <v>8.116031700000001</v>
       </c>
       <c r="J19">
-        <v>0.1288800258105263</v>
+        <v>0.28993023</v>
       </c>
       <c r="K19">
-        <v>1.704684333309526</v>
+        <v>8.116031700000001</v>
       </c>
       <c r="L19">
-        <v>1.730264594942105</v>
+        <v>7.5423838</v>
       </c>
       <c r="M19">
-        <v>2.568522086052631</v>
+        <v>3.77046816875</v>
       </c>
       <c r="N19">
-        <v>2.568522086052631</v>
+        <v>3.77046816875</v>
       </c>
       <c r="O19">
-        <v>1.723117011577544</v>
+        <v>2.513942999246666</v>
       </c>
       <c r="P19">
-        <v>2.280576168471596</v>
+        <v>5.218989345833333</v>
       </c>
       <c r="Q19">
-        <v>2.280576168471596</v>
+        <v>5.218989345833333</v>
       </c>
       <c r="R19">
-        <v>2.136603209681079</v>
+        <v>5.943249934375</v>
       </c>
       <c r="S19">
-        <v>2.136603209681079</v>
+        <v>5.943249934375</v>
       </c>
       <c r="T19">
-        <v>2.031060218253518</v>
+        <v>2.658387596556667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.0008725682122105267</v>
+        <v>0.002334096784657535</v>
       </c>
       <c r="D20">
-        <v>0.9317216662636841</v>
+        <v>1.779105482482192</v>
       </c>
       <c r="E20">
-        <v>0.0008725682122105267</v>
+        <v>0.002334096784657535</v>
       </c>
       <c r="F20">
-        <v>2.926763954812632</v>
+        <v>2.189918670126576</v>
       </c>
       <c r="G20">
-        <v>0.03975178332047368</v>
+        <v>1.835215493405754</v>
       </c>
       <c r="H20">
-        <v>0.01703580641947368</v>
+        <v>0.165656541609589</v>
       </c>
       <c r="I20">
-        <v>2.926763954812632</v>
+        <v>2.189918670126576</v>
       </c>
       <c r="J20">
-        <v>1.012134918378947</v>
+        <v>0.2461711349581369</v>
       </c>
       <c r="K20">
-        <v>2.926763954812632</v>
+        <v>2.189918670126576</v>
       </c>
       <c r="L20">
-        <v>0.9317216662636841</v>
+        <v>1.779105482482192</v>
       </c>
       <c r="M20">
-        <v>0.4662971172379473</v>
+        <v>0.8907197896334249</v>
       </c>
       <c r="N20">
-        <v>0.4662971172379473</v>
+        <v>0.8907197896334249</v>
       </c>
       <c r="O20">
-        <v>0.3241153392654561</v>
+        <v>1.205551690890868</v>
       </c>
       <c r="P20">
-        <v>1.286452729762842</v>
+        <v>1.323786083131142</v>
       </c>
       <c r="Q20">
-        <v>1.286452729762842</v>
+        <v>1.323786083131142</v>
       </c>
       <c r="R20">
-        <v>1.69653053602529</v>
+        <v>1.54031922988</v>
       </c>
       <c r="S20">
-        <v>1.69653053602529</v>
+        <v>1.54031922988</v>
       </c>
       <c r="T20">
-        <v>0.8213801162345703</v>
+        <v>1.036400236561151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.833118434014641</v>
+        <v>3.406779577163157</v>
       </c>
       <c r="D21">
-        <v>0.921639598403602</v>
+        <v>1.730264594942105</v>
       </c>
       <c r="E21">
-        <v>3.833118434014641</v>
+        <v>3.406779577163157</v>
       </c>
       <c r="F21">
-        <v>0.0008001724272154217</v>
+        <v>1.704684333309526</v>
       </c>
       <c r="G21">
-        <v>1.892633668346419</v>
+        <v>0.03230686262736841</v>
       </c>
       <c r="H21">
-        <v>1.56754999196616</v>
+        <v>5.183445915668421</v>
       </c>
       <c r="I21">
-        <v>0.0008001724272154217</v>
+        <v>1.704684333309526</v>
       </c>
       <c r="J21">
-        <v>0.458924920822224</v>
+        <v>0.1288800258105263</v>
       </c>
       <c r="K21">
-        <v>0.0008001724272154217</v>
+        <v>1.704684333309526</v>
       </c>
       <c r="L21">
-        <v>0.921639598403602</v>
+        <v>1.730264594942105</v>
       </c>
       <c r="M21">
-        <v>2.377379016209122</v>
+        <v>2.568522086052631</v>
       </c>
       <c r="N21">
-        <v>2.377379016209122</v>
+        <v>2.568522086052631</v>
       </c>
       <c r="O21">
-        <v>2.215797233588221</v>
+        <v>1.723117011577544</v>
       </c>
       <c r="P21">
-        <v>1.58518606828182</v>
+        <v>2.280576168471596</v>
       </c>
       <c r="Q21">
-        <v>1.58518606828182</v>
+        <v>2.280576168471596</v>
       </c>
       <c r="R21">
-        <v>1.189089594318169</v>
+        <v>2.136603209681079</v>
       </c>
       <c r="S21">
-        <v>1.189089594318169</v>
+        <v>2.136603209681079</v>
       </c>
       <c r="T21">
-        <v>1.445777797663377</v>
+        <v>2.031060218253518</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.003550613755952988</v>
+        <v>0.0008725682122105267</v>
       </c>
       <c r="D22">
-        <v>1.254772966985912</v>
+        <v>0.9317216662636841</v>
       </c>
       <c r="E22">
-        <v>0.003550613755952988</v>
+        <v>0.0008725682122105267</v>
       </c>
       <c r="F22">
-        <v>0.6591969602014227</v>
+        <v>2.926763954812632</v>
       </c>
       <c r="G22">
-        <v>1.037479104080533</v>
+        <v>0.03975178332047368</v>
       </c>
       <c r="H22">
-        <v>0.0001804650347443722</v>
+        <v>0.01703580641947368</v>
       </c>
       <c r="I22">
-        <v>0.6591969602014227</v>
+        <v>2.926763954812632</v>
       </c>
       <c r="J22">
-        <v>1.510632512469594</v>
+        <v>1.012134918378947</v>
       </c>
       <c r="K22">
-        <v>0.6591969602014227</v>
+        <v>2.926763954812632</v>
       </c>
       <c r="L22">
-        <v>1.254772966985912</v>
+        <v>0.9317216662636841</v>
       </c>
       <c r="M22">
-        <v>0.6291617903709326</v>
+        <v>0.4662971172379473</v>
       </c>
       <c r="N22">
-        <v>0.6291617903709326</v>
+        <v>0.4662971172379473</v>
       </c>
       <c r="O22">
-        <v>0.765267561607466</v>
+        <v>0.3241153392654561</v>
       </c>
       <c r="P22">
-        <v>0.6391735136477626</v>
+        <v>1.286452729762842</v>
       </c>
       <c r="Q22">
-        <v>0.6391735136477626</v>
+        <v>1.286452729762842</v>
       </c>
       <c r="R22">
-        <v>0.6441793752861777</v>
+        <v>1.69653053602529</v>
       </c>
       <c r="S22">
-        <v>0.6441793752861777</v>
+        <v>1.69653053602529</v>
       </c>
       <c r="T22">
-        <v>0.7443021037546932</v>
+        <v>0.8213801162345703</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.08295033050546884</v>
+        <v>3.833118434014641</v>
       </c>
       <c r="D23">
-        <v>1.872201884411598</v>
+        <v>0.921639598403602</v>
       </c>
       <c r="E23">
-        <v>0.08295033050546884</v>
+        <v>3.833118434014641</v>
       </c>
       <c r="F23">
-        <v>1.291663990849878</v>
+        <v>0.0008001724272154217</v>
       </c>
       <c r="G23">
-        <v>1.204496121253931</v>
+        <v>1.892633668346419</v>
       </c>
       <c r="H23">
-        <v>0.05449475739745575</v>
+        <v>1.56754999196616</v>
       </c>
       <c r="I23">
-        <v>1.291663990849878</v>
+        <v>0.0008001724272154217</v>
       </c>
       <c r="J23">
-        <v>0.8970324175091774</v>
+        <v>0.458924920822224</v>
       </c>
       <c r="K23">
-        <v>1.291663990849878</v>
+        <v>0.0008001724272154217</v>
       </c>
       <c r="L23">
-        <v>1.872201884411598</v>
+        <v>0.921639598403602</v>
       </c>
       <c r="M23">
-        <v>0.9775761074585336</v>
+        <v>2.377379016209122</v>
       </c>
       <c r="N23">
-        <v>0.9775761074585336</v>
+        <v>2.377379016209122</v>
       </c>
       <c r="O23">
-        <v>1.053216112056999</v>
+        <v>2.215797233588221</v>
       </c>
       <c r="P23">
-        <v>1.082272068588982</v>
+        <v>1.58518606828182</v>
       </c>
       <c r="Q23">
-        <v>1.082272068588982</v>
+        <v>1.58518606828182</v>
       </c>
       <c r="R23">
-        <v>1.134620049154206</v>
+        <v>1.189089594318169</v>
       </c>
       <c r="S23">
-        <v>1.134620049154206</v>
+        <v>1.189089594318169</v>
       </c>
       <c r="T23">
-        <v>0.9004732503212516</v>
+        <v>1.445777797663377</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.985364889919626</v>
+        <v>0.003550613755952988</v>
       </c>
       <c r="D24">
-        <v>0.4352659370741574</v>
+        <v>1.254772966985912</v>
       </c>
       <c r="E24">
-        <v>1.985364889919626</v>
+        <v>0.003550613755952988</v>
       </c>
       <c r="F24">
-        <v>0.8209179269146976</v>
+        <v>0.6591969602014227</v>
       </c>
       <c r="G24">
-        <v>0.5522788786390546</v>
+        <v>1.037479104080533</v>
       </c>
       <c r="H24">
-        <v>2.18003985223065</v>
+        <v>0.0001804650347443722</v>
       </c>
       <c r="I24">
-        <v>0.8209179269146976</v>
+        <v>0.6591969602014227</v>
       </c>
       <c r="J24">
-        <v>0.6965456643618477</v>
+        <v>1.510632512469594</v>
       </c>
       <c r="K24">
-        <v>0.8209179269146976</v>
+        <v>0.6591969602014227</v>
       </c>
       <c r="L24">
-        <v>0.4352659370741574</v>
+        <v>1.254772966985912</v>
       </c>
       <c r="M24">
-        <v>1.210315413496892</v>
+        <v>0.6291617903709326</v>
       </c>
       <c r="N24">
-        <v>1.210315413496892</v>
+        <v>0.6291617903709326</v>
       </c>
       <c r="O24">
-        <v>0.9909699018776128</v>
+        <v>0.765267561607466</v>
       </c>
       <c r="P24">
-        <v>1.080516251302827</v>
+        <v>0.6391735136477626</v>
       </c>
       <c r="Q24">
-        <v>1.080516251302827</v>
+        <v>0.6391735136477626</v>
       </c>
       <c r="R24">
-        <v>1.015616670205795</v>
+        <v>0.6441793752861777</v>
       </c>
       <c r="S24">
-        <v>1.015616670205795</v>
+        <v>0.6441793752861777</v>
       </c>
       <c r="T24">
-        <v>1.111735524856672</v>
+        <v>0.7443021037546932</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.0004517490931424619</v>
+        <v>0.08295033050546884</v>
       </c>
       <c r="D25">
-        <v>0.2932338955965229</v>
+        <v>1.872201884411598</v>
       </c>
       <c r="E25">
-        <v>0.0004517490931424619</v>
+        <v>0.08295033050546884</v>
       </c>
       <c r="F25">
-        <v>4.059502366694058</v>
+        <v>1.291663990849878</v>
       </c>
       <c r="G25">
-        <v>0.03457783773595675</v>
+        <v>1.204496121253931</v>
       </c>
       <c r="H25">
-        <v>0.03913132322509325</v>
+        <v>0.05449475739745575</v>
       </c>
       <c r="I25">
-        <v>4.059502366694058</v>
+        <v>1.291663990849878</v>
       </c>
       <c r="J25">
-        <v>1.631988805127331</v>
+        <v>0.8970324175091774</v>
       </c>
       <c r="K25">
-        <v>4.059502366694058</v>
+        <v>1.291663990849878</v>
       </c>
       <c r="L25">
-        <v>0.2932338955965229</v>
+        <v>1.872201884411598</v>
       </c>
       <c r="M25">
-        <v>0.1468428223448327</v>
+        <v>0.9775761074585336</v>
       </c>
       <c r="N25">
-        <v>0.1468428223448327</v>
+        <v>0.9775761074585336</v>
       </c>
       <c r="O25">
-        <v>0.1094211608085407</v>
+        <v>1.053216112056999</v>
       </c>
       <c r="P25">
-        <v>1.451062670461241</v>
+        <v>1.082272068588982</v>
       </c>
       <c r="Q25">
-        <v>1.451062670461241</v>
+        <v>1.082272068588982</v>
       </c>
       <c r="R25">
-        <v>2.103172594519445</v>
+        <v>1.134620049154206</v>
       </c>
       <c r="S25">
-        <v>2.103172594519445</v>
+        <v>1.134620049154206</v>
       </c>
       <c r="T25">
-        <v>1.009814329578684</v>
+        <v>0.9004732503212516</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.00245131764770265</v>
+        <v>1.985364889919626</v>
       </c>
       <c r="D26">
-        <v>1.602135289468239</v>
+        <v>0.4352659370741574</v>
       </c>
       <c r="E26">
-        <v>0.00245131764770265</v>
+        <v>1.985364889919626</v>
       </c>
       <c r="F26">
-        <v>0.004873573245293489</v>
+        <v>0.8209179269146976</v>
       </c>
       <c r="G26">
-        <v>1.410159995498077</v>
+        <v>0.5522788786390546</v>
       </c>
       <c r="H26">
-        <v>2.729660321940111</v>
+        <v>2.18003985223065</v>
       </c>
       <c r="I26">
-        <v>0.004873573245293489</v>
+        <v>0.8209179269146976</v>
       </c>
       <c r="J26">
-        <v>1.172020355314177</v>
+        <v>0.6965456643618477</v>
       </c>
       <c r="K26">
-        <v>0.004873573245293489</v>
+        <v>0.8209179269146976</v>
       </c>
       <c r="L26">
-        <v>1.602135289468239</v>
+        <v>0.4352659370741574</v>
       </c>
       <c r="M26">
-        <v>0.8022933035579709</v>
+        <v>1.210315413496892</v>
       </c>
       <c r="N26">
-        <v>0.8022933035579709</v>
+        <v>1.210315413496892</v>
       </c>
       <c r="O26">
-        <v>1.004915534204673</v>
+        <v>0.9909699018776128</v>
       </c>
       <c r="P26">
-        <v>0.5364867267870784</v>
+        <v>1.080516251302827</v>
       </c>
       <c r="Q26">
-        <v>0.5364867267870784</v>
+        <v>1.080516251302827</v>
       </c>
       <c r="R26">
-        <v>0.4035834384016322</v>
+        <v>1.015616670205795</v>
       </c>
       <c r="S26">
-        <v>0.4035834384016322</v>
+        <v>1.015616670205795</v>
       </c>
       <c r="T26">
-        <v>1.1535501421856</v>
+        <v>1.111735524856672</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>6.663863739564073</v>
+        <v>0.0004517490931424619</v>
       </c>
       <c r="D27">
-        <v>0.2058746234777468</v>
+        <v>0.2932338955965229</v>
       </c>
       <c r="E27">
-        <v>6.663863739564073</v>
+        <v>0.0004517490931424619</v>
       </c>
       <c r="F27">
-        <v>1.323114401080302</v>
+        <v>4.059502366694058</v>
       </c>
       <c r="G27">
-        <v>0.02843281412943852</v>
+        <v>0.03457783773595675</v>
       </c>
       <c r="H27">
-        <v>2.692872540875087</v>
+        <v>0.03913132322509325</v>
       </c>
       <c r="I27">
-        <v>1.323114401080302</v>
+        <v>4.059502366694058</v>
       </c>
       <c r="J27">
-        <v>1.133837875297343</v>
+        <v>1.631988805127331</v>
       </c>
       <c r="K27">
-        <v>1.323114401080302</v>
+        <v>4.059502366694058</v>
       </c>
       <c r="L27">
-        <v>0.2058746234777468</v>
+        <v>0.2932338955965229</v>
       </c>
       <c r="M27">
-        <v>3.43486918152091</v>
+        <v>0.1468428223448327</v>
       </c>
       <c r="N27">
-        <v>3.43486918152091</v>
+        <v>0.1468428223448327</v>
       </c>
       <c r="O27">
-        <v>2.299390392390419</v>
+        <v>0.1094211608085407</v>
       </c>
       <c r="P27">
-        <v>2.730950921374041</v>
+        <v>1.451062670461241</v>
       </c>
       <c r="Q27">
-        <v>2.730950921374041</v>
+        <v>1.451062670461241</v>
       </c>
       <c r="R27">
-        <v>2.378991791300606</v>
+        <v>2.103172594519445</v>
       </c>
       <c r="S27">
-        <v>2.378991791300606</v>
+        <v>2.103172594519445</v>
       </c>
       <c r="T27">
-        <v>2.007999332403998</v>
+        <v>1.009814329578684</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.02788928711331032</v>
+        <v>0.00245131764770265</v>
       </c>
       <c r="D28">
-        <v>1.486277097480223</v>
+        <v>1.602135289468239</v>
       </c>
       <c r="E28">
-        <v>0.02788928711331032</v>
+        <v>0.00245131764770265</v>
       </c>
       <c r="F28">
-        <v>1.551507695479941</v>
+        <v>0.004873573245293489</v>
       </c>
       <c r="G28">
-        <v>1.451941457273295</v>
+        <v>1.410159995498077</v>
       </c>
       <c r="H28">
-        <v>0.1049444717287964</v>
+        <v>2.729660321940111</v>
       </c>
       <c r="I28">
-        <v>1.551507695479941</v>
+        <v>0.004873573245293489</v>
       </c>
       <c r="J28">
-        <v>0.5813774571343391</v>
+        <v>1.172020355314177</v>
       </c>
       <c r="K28">
-        <v>1.551507695479941</v>
+        <v>0.004873573245293489</v>
       </c>
       <c r="L28">
-        <v>1.486277097480223</v>
+        <v>1.602135289468239</v>
       </c>
       <c r="M28">
-        <v>0.7570831922967668</v>
+        <v>0.8022933035579709</v>
       </c>
       <c r="N28">
-        <v>0.7570831922967668</v>
+        <v>0.8022933035579709</v>
       </c>
       <c r="O28">
-        <v>0.9887026139556094</v>
+        <v>1.004915534204673</v>
       </c>
       <c r="P28">
-        <v>1.021891360024491</v>
+        <v>0.5364867267870784</v>
       </c>
       <c r="Q28">
-        <v>1.021891360024491</v>
+        <v>0.5364867267870784</v>
       </c>
       <c r="R28">
-        <v>1.154295443888354</v>
+        <v>0.4035834384016322</v>
       </c>
       <c r="S28">
-        <v>1.154295443888354</v>
+        <v>0.4035834384016322</v>
       </c>
       <c r="T28">
-        <v>0.867322911034984</v>
+        <v>1.1535501421856</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>6.663863739564073</v>
+      </c>
+      <c r="D29">
+        <v>0.2058746234777468</v>
+      </c>
+      <c r="E29">
+        <v>6.663863739564073</v>
+      </c>
+      <c r="F29">
+        <v>1.323114401080302</v>
+      </c>
+      <c r="G29">
+        <v>0.02843281412943852</v>
+      </c>
+      <c r="H29">
+        <v>2.692872540875087</v>
+      </c>
+      <c r="I29">
+        <v>1.323114401080302</v>
+      </c>
+      <c r="J29">
+        <v>1.133837875297343</v>
+      </c>
+      <c r="K29">
+        <v>1.323114401080302</v>
+      </c>
+      <c r="L29">
+        <v>0.2058746234777468</v>
+      </c>
+      <c r="M29">
+        <v>3.43486918152091</v>
+      </c>
+      <c r="N29">
+        <v>3.43486918152091</v>
+      </c>
+      <c r="O29">
+        <v>2.299390392390419</v>
+      </c>
+      <c r="P29">
+        <v>2.730950921374041</v>
+      </c>
+      <c r="Q29">
+        <v>2.730950921374041</v>
+      </c>
+      <c r="R29">
+        <v>2.378991791300606</v>
+      </c>
+      <c r="S29">
+        <v>2.378991791300606</v>
+      </c>
+      <c r="T29">
+        <v>2.007999332403998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.02788928711331032</v>
+      </c>
+      <c r="D30">
+        <v>1.486277097480223</v>
+      </c>
+      <c r="E30">
+        <v>0.02788928711331032</v>
+      </c>
+      <c r="F30">
+        <v>1.551507695479941</v>
+      </c>
+      <c r="G30">
+        <v>1.451941457273295</v>
+      </c>
+      <c r="H30">
+        <v>0.1049444717287964</v>
+      </c>
+      <c r="I30">
+        <v>1.551507695479941</v>
+      </c>
+      <c r="J30">
+        <v>0.5813774571343391</v>
+      </c>
+      <c r="K30">
+        <v>1.551507695479941</v>
+      </c>
+      <c r="L30">
+        <v>1.486277097480223</v>
+      </c>
+      <c r="M30">
+        <v>0.7570831922967668</v>
+      </c>
+      <c r="N30">
+        <v>0.7570831922967668</v>
+      </c>
+      <c r="O30">
+        <v>0.9887026139556094</v>
+      </c>
+      <c r="P30">
+        <v>1.021891360024491</v>
+      </c>
+      <c r="Q30">
+        <v>1.021891360024491</v>
+      </c>
+      <c r="R30">
+        <v>1.154295443888354</v>
+      </c>
+      <c r="S30">
+        <v>1.154295443888354</v>
+      </c>
+      <c r="T30">
+        <v>0.867322911034984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.01970346954303585</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.8054893350266741</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.01970346954303585</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.126097691985408</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.109776950020645</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.1283406145197177</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.126097691985408</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.3372859637426674</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.126097691985408</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8054893350266741</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.4125964022848549</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.4125964022848549</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.644989918196785</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.6504301655183727</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.6504301655183727</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.7693470471351317</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.7693470471351317</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.5877823374730248</v>
       </c>
     </row>
